--- a/ArtistStats.xlsx
+++ b/ArtistStats.xlsx
@@ -403,7 +403,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="28"/>
-    <col min="2" max="2" customWidth="1" width="26"/>
+    <col min="2" max="2" customWidth="1" width="36"/>
     <col min="3" max="3" customWidth="1" width="16"/>
     <col min="4" max="4" customWidth="1" width="22"/>
     <col min="5" max="5" customWidth="1" width="15"/>
@@ -455,7 +455,7 @@
         <v>Agoney</v>
       </c>
       <c r="B2" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C2" t="str">
         <v>No</v>
@@ -490,7 +490,7 @@
         <v>Aisel</v>
       </c>
       <c r="B3" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C3" t="str">
         <v>No</v>
@@ -525,7 +525,7 @@
         <v>Alma</v>
       </c>
       <c r="B4" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C4" t="str">
         <v>No</v>
@@ -560,7 +560,7 @@
         <v>Ana Mena</v>
       </c>
       <c r="B5" t="str">
-        <v>Andorra, Spain</v>
+        <v>Andorra 🇦🇩, Spain 🇪🇸</v>
       </c>
       <c r="C5" t="str">
         <v>No</v>
@@ -595,7 +595,7 @@
         <v>Annalisa</v>
       </c>
       <c r="B6" t="str">
-        <v>Italy, San Marino</v>
+        <v>Italy 🇮🇹, San Marino 🇸🇲</v>
       </c>
       <c r="C6" t="str">
         <v>No</v>
@@ -630,7 +630,7 @@
         <v>ÁSDÍS</v>
       </c>
       <c r="B7" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C7" t="str">
         <v>No</v>
@@ -665,7 +665,7 @@
         <v>Christopher</v>
       </c>
       <c r="B8" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C8" t="str">
         <v>No</v>
@@ -700,7 +700,7 @@
         <v>Dara Ekimova</v>
       </c>
       <c r="B9" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C9" t="str">
         <v>No</v>
@@ -735,7 +735,7 @@
         <v>Elvana Gjata</v>
       </c>
       <c r="B10" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C10" t="str">
         <v>No</v>
@@ -770,7 +770,7 @@
         <v>Faouzia</v>
       </c>
       <c r="B11" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C11" t="str">
         <v>No</v>
@@ -805,7 +805,7 @@
         <v>INNA</v>
       </c>
       <c r="B12" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C12" t="str">
         <v>No</v>
@@ -840,7 +840,7 @@
         <v>Kylie Minogue</v>
       </c>
       <c r="B13" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C13" t="str">
         <v>No</v>
@@ -875,7 +875,7 @@
         <v>Lara</v>
       </c>
       <c r="B14" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C14" t="str">
         <v>No</v>
@@ -910,7 +910,7 @@
         <v>Lorena Gómez</v>
       </c>
       <c r="B15" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C15" t="str">
         <v>No</v>
@@ -945,7 +945,7 @@
         <v>Of Monsters and Men</v>
       </c>
       <c r="B16" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C16" t="str">
         <v>No</v>
@@ -980,7 +980,7 @@
         <v>Stefanie Heinzmann</v>
       </c>
       <c r="B17" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C17" t="str">
         <v>No</v>
@@ -1015,7 +1015,7 @@
         <v>Thorsteinn Einarsson</v>
       </c>
       <c r="B18" t="str">
-        <v>Austria, Iceland</v>
+        <v>Austria 🇦🇹, Iceland 🇮🇸</v>
       </c>
       <c r="C18" t="str">
         <v>No</v>
@@ -1050,7 +1050,7 @@
         <v>Amel Bent</v>
       </c>
       <c r="B19" t="str">
-        <v>Morocco, France</v>
+        <v>Morocco 🇲🇦, France 🇫🇷</v>
       </c>
       <c r="C19" t="str">
         <v>Yes</v>
@@ -1085,7 +1085,7 @@
         <v>Polina Gagarina</v>
       </c>
       <c r="B20" t="str">
-        <v>Sweden, Russia</v>
+        <v>Sweden 🇸🇪, Russia 🇷🇺</v>
       </c>
       <c r="C20" t="str">
         <v>Yes</v>
@@ -1120,7 +1120,7 @@
         <v>Abir</v>
       </c>
       <c r="B21" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C21" t="str">
         <v>Yes</v>
@@ -1155,7 +1155,7 @@
         <v>Aleksandra Prijovic</v>
       </c>
       <c r="B22" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C22" t="str">
         <v>Yes</v>
@@ -1190,7 +1190,7 @@
         <v>Alexander Oscar</v>
       </c>
       <c r="B23" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C23" t="str">
         <v>Yes</v>
@@ -1225,7 +1225,7 @@
         <v>Alma</v>
       </c>
       <c r="B24" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C24" t="str">
         <v>Yes</v>
@@ -1260,7 +1260,7 @@
         <v>Ana Guerra</v>
       </c>
       <c r="B25" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C25" t="str">
         <v>Yes</v>
@@ -1295,7 +1295,7 @@
         <v>Ana Moura</v>
       </c>
       <c r="B26" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C26" t="str">
         <v>Yes</v>
@@ -1330,7 +1330,7 @@
         <v>Anastasia</v>
       </c>
       <c r="B27" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C27" t="str">
         <v>Yes</v>
@@ -1365,7 +1365,7 @@
         <v>Angèle</v>
       </c>
       <c r="B28" t="str">
-        <v>Belgium, San Marino</v>
+        <v>Belgium 🇧🇪, San Marino 🇸🇲</v>
       </c>
       <c r="C28" t="str">
         <v>Yes</v>
@@ -1400,7 +1400,7 @@
         <v>Arilena Ara</v>
       </c>
       <c r="B29" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C29" t="str">
         <v>Yes</v>
@@ -1435,7 +1435,7 @@
         <v>Artem Pivovarov</v>
       </c>
       <c r="B30" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C30" t="str">
         <v>Yes</v>
@@ -1470,7 +1470,7 @@
         <v>BESS</v>
       </c>
       <c r="B31" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C31" t="str">
         <v>Yes</v>
@@ -1505,7 +1505,7 @@
         <v>Costi</v>
       </c>
       <c r="B32" t="str">
-        <v>Bulgaria, Romania</v>
+        <v>Bulgaria 🇧🇬, Romania 🇷🇴</v>
       </c>
       <c r="C32" t="str">
         <v>Yes</v>
@@ -1540,7 +1540,7 @@
         <v>Dagny</v>
       </c>
       <c r="B33" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C33" t="str">
         <v>Yes</v>
@@ -1575,7 +1575,7 @@
         <v>Damir Kedžo</v>
       </c>
       <c r="B34" t="str">
-        <v>Serbia, Croatia</v>
+        <v>Serbia 🇷🇸, Croatia 🇭🇷</v>
       </c>
       <c r="C34" t="str">
         <v>Yes</v>
@@ -1610,7 +1610,7 @@
         <v>Daria</v>
       </c>
       <c r="B35" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C35" t="str">
         <v>Yes</v>
@@ -1645,7 +1645,7 @@
         <v>Darin</v>
       </c>
       <c r="B36" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C36" t="str">
         <v>Yes</v>
@@ -1680,7 +1680,7 @@
         <v>Delta Goodrem</v>
       </c>
       <c r="B37" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C37" t="str">
         <v>Yes</v>
@@ -1715,7 +1715,7 @@
         <v>Dermot Kennedy</v>
       </c>
       <c r="B38" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C38" t="str">
         <v>Yes</v>
@@ -1750,7 +1750,7 @@
         <v>Dhurata Dora</v>
       </c>
       <c r="B39" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C39" t="str">
         <v>Yes</v>
@@ -1785,7 +1785,7 @@
         <v>Diogo Piçarra</v>
       </c>
       <c r="B40" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C40" t="str">
         <v>Yes</v>
@@ -1820,7 +1820,7 @@
         <v>Doda</v>
       </c>
       <c r="B41" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C41" t="str">
         <v>Yes</v>
@@ -1855,7 +1855,7 @@
         <v>Dotan</v>
       </c>
       <c r="B42" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C42" t="str">
         <v>Yes</v>
@@ -1890,7 +1890,7 @@
         <v>Eleni Foureira</v>
       </c>
       <c r="B43" t="str">
-        <v>Greece, Cyprus</v>
+        <v>Greece 🇬🇷, Cyprus 🇨🇾</v>
       </c>
       <c r="C43" t="str">
         <v>Yes</v>
@@ -1925,7 +1925,7 @@
         <v>Ella Henderson</v>
       </c>
       <c r="B44" t="str">
-        <v>Luxembourg, Germany</v>
+        <v>Luxembourg 🇱🇺, Germany 🇩🇪</v>
       </c>
       <c r="C44" t="str">
         <v>Yes</v>
@@ -1960,7 +1960,7 @@
         <v>Elodie</v>
       </c>
       <c r="B45" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C45" t="str">
         <v>Yes</v>
@@ -1995,7 +1995,7 @@
         <v>Elyanna</v>
       </c>
       <c r="B46" t="str">
-        <v>Jordan, Tunesia</v>
+        <v>Jordan 🇯🇴, Tunesia undefined</v>
       </c>
       <c r="C46" t="str">
         <v>Yes</v>
@@ -2030,7 +2030,7 @@
         <v>EMEL</v>
       </c>
       <c r="B47" t="str">
-        <v>Tunisia, Montenegro</v>
+        <v>Tunisia 🇹🇳, Montenegro 🇲🇪</v>
       </c>
       <c r="C47" t="str">
         <v>Yes</v>
@@ -2065,7 +2065,7 @@
         <v>Erika Vikman</v>
       </c>
       <c r="B48" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C48" t="str">
         <v>Yes</v>
@@ -2100,7 +2100,7 @@
         <v>ETOLUBOV</v>
       </c>
       <c r="B49" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C49" t="str">
         <v>Yes</v>
@@ -2135,7 +2135,7 @@
         <v>Evangelia</v>
       </c>
       <c r="B50" t="str">
-        <v>Cyprus, Greece</v>
+        <v>Cyprus 🇨🇾, Greece 🇬🇷</v>
       </c>
       <c r="C50" t="str">
         <v>Yes</v>
@@ -2170,7 +2170,7 @@
         <v>Fernando Daniel</v>
       </c>
       <c r="B51" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C51" t="str">
         <v>Yes</v>
@@ -2205,7 +2205,7 @@
         <v>Hozier</v>
       </c>
       <c r="B52" t="str">
-        <v>Italy, Ireland</v>
+        <v>Italy 🇮🇹, Ireland 🇮🇪</v>
       </c>
       <c r="C52" t="str">
         <v>Yes</v>
@@ -2240,7 +2240,7 @@
         <v>Ira Losco</v>
       </c>
       <c r="B53" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C53" t="str">
         <v>Yes</v>
@@ -2275,7 +2275,7 @@
         <v>Irama</v>
       </c>
       <c r="B54" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C54" t="str">
         <v>Yes</v>
@@ -2310,7 +2310,7 @@
         <v>Irina Rimes</v>
       </c>
       <c r="B55" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C55" t="str">
         <v>Yes</v>
@@ -2345,7 +2345,7 @@
         <v>Iveta Mukuchyan</v>
       </c>
       <c r="B56" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C56" t="str">
         <v>Yes</v>
@@ -2380,7 +2380,7 @@
         <v>Ivi Adamou</v>
       </c>
       <c r="B57" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C57" t="str">
         <v>Yes</v>
@@ -2415,7 +2415,7 @@
         <v>Katie Kei</v>
       </c>
       <c r="B58" t="str">
-        <v>Czechia</v>
+        <v>Czechia 🇨🇿</v>
       </c>
       <c r="C58" t="str">
         <v>Yes</v>
@@ -2450,7 +2450,7 @@
         <v>KAZKA</v>
       </c>
       <c r="B59" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C59" t="str">
         <v>Yes</v>
@@ -2485,7 +2485,7 @@
         <v>Kodaline</v>
       </c>
       <c r="B60" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C60" t="str">
         <v>Yes</v>
@@ -2520,7 +2520,7 @@
         <v>La Rappresentante di Lista</v>
       </c>
       <c r="B61" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C61" t="str">
         <v>Yes</v>
@@ -2555,7 +2555,7 @@
         <v>Laura Pausini</v>
       </c>
       <c r="B62" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C62" t="str">
         <v>Yes</v>
@@ -2590,7 +2590,7 @@
         <v>Lilit Hovhannisyan</v>
       </c>
       <c r="B63" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C63" t="str">
         <v>Yes</v>
@@ -2625,7 +2625,7 @@
         <v>Linh</v>
       </c>
       <c r="B64" t="str">
-        <v>France, Luxembourg</v>
+        <v>France 🇫🇷, Luxembourg 🇱🇺</v>
       </c>
       <c r="C64" t="str">
         <v>Yes</v>
@@ -2660,7 +2660,7 @@
         <v>Loreen</v>
       </c>
       <c r="B65" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C65" t="str">
         <v>Yes</v>
@@ -2695,7 +2695,7 @@
         <v>Luca Hänni</v>
       </c>
       <c r="B66" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C66" t="str">
         <v>Yes</v>
@@ -2730,7 +2730,7 @@
         <v>Mahmood</v>
       </c>
       <c r="B67" t="str">
-        <v>Italy, San Marino</v>
+        <v>Italy 🇮🇹, San Marino 🇸🇲</v>
       </c>
       <c r="C67" t="str">
         <v>Yes</v>
@@ -2765,7 +2765,7 @@
         <v>Marco Mengoni</v>
       </c>
       <c r="B68" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C68" t="str">
         <v>Yes</v>
@@ -2800,7 +2800,7 @@
         <v>Max Barskih</v>
       </c>
       <c r="B69" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C69" t="str">
         <v>Yes</v>
@@ -2835,7 +2835,7 @@
         <v>Mentissa</v>
       </c>
       <c r="B70" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C70" t="str">
         <v>Yes</v>
@@ -2870,7 +2870,7 @@
         <v>Michalis Hatzigiannis</v>
       </c>
       <c r="B71" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C71" t="str">
         <v>Yes</v>
@@ -2905,7 +2905,7 @@
         <v>Mø</v>
       </c>
       <c r="B72" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C72" t="str">
         <v>Yes</v>
@@ -2940,7 +2940,7 @@
         <v>Moncrieff</v>
       </c>
       <c r="B73" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C73" t="str">
         <v>Yes</v>
@@ -2975,7 +2975,7 @@
         <v>Mylène Farmer</v>
       </c>
       <c r="B74" t="str">
-        <v>Luxembourg, Monaco</v>
+        <v>Luxembourg 🇱🇺, Monaco 🇲🇨</v>
       </c>
       <c r="C74" t="str">
         <v>Yes</v>
@@ -3010,7 +3010,7 @@
         <v>Noa Kirel</v>
       </c>
       <c r="B75" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C75" t="str">
         <v>Yes</v>
@@ -3045,7 +3045,7 @@
         <v>Nuno Ribeiro</v>
       </c>
       <c r="B76" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C76" t="str">
         <v>Yes</v>
@@ -3080,7 +3080,7 @@
         <v>Pablo Alborán</v>
       </c>
       <c r="B77" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C77" t="str">
         <v>Yes</v>
@@ -3115,7 +3115,7 @@
         <v>Pastora Soler</v>
       </c>
       <c r="B78" t="str">
-        <v>Spain, Andorra</v>
+        <v>Spain 🇪🇸, Andorra 🇦🇩</v>
       </c>
       <c r="C78" t="str">
         <v>Yes</v>
@@ -3150,7 +3150,7 @@
         <v>Purple Disco Machine</v>
       </c>
       <c r="B79" t="str">
-        <v>Germany, Iceland</v>
+        <v>Germany 🇩🇪, Iceland 🇮🇸</v>
       </c>
       <c r="C79" t="str">
         <v>Yes</v>
@@ -3185,7 +3185,7 @@
         <v>Regi</v>
       </c>
       <c r="B80" t="str">
-        <v>The Netherlands, Belgium</v>
+        <v>The Netherlands 🇳🇱, Belgium 🇧🇪</v>
       </c>
       <c r="C80" t="str">
         <v>Yes</v>
@@ -3220,7 +3220,7 @@
         <v>Rosa Linn</v>
       </c>
       <c r="B81" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C81" t="str">
         <v>Yes</v>
@@ -3255,7 +3255,7 @@
         <v>Ruth Lorenzo</v>
       </c>
       <c r="B82" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C82" t="str">
         <v>Yes</v>
@@ -3290,7 +3290,7 @@
         <v>Safri Duo</v>
       </c>
       <c r="B83" t="str">
-        <v>Germany, Luxembourg</v>
+        <v>Germany 🇩🇪, Luxembourg 🇱🇺</v>
       </c>
       <c r="C83" t="str">
         <v>Yes</v>
@@ -3325,7 +3325,7 @@
         <v>Seyran Ismayilkhanov</v>
       </c>
       <c r="B84" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C84" t="str">
         <v>Yes</v>
@@ -3360,7 +3360,7 @@
         <v>Shaman</v>
       </c>
       <c r="B85" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C85" t="str">
         <v>Yes</v>
@@ -3395,7 +3395,7 @@
         <v>Sigrid</v>
       </c>
       <c r="B86" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C86" t="str">
         <v>Yes</v>
@@ -3430,7 +3430,7 @@
         <v>Skaar</v>
       </c>
       <c r="B87" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C87" t="str">
         <v>Yes</v>
@@ -3465,7 +3465,7 @@
         <v>Slimane</v>
       </c>
       <c r="B88" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C88" t="str">
         <v>Yes</v>
@@ -3500,7 +3500,7 @@
         <v>Smolasty</v>
       </c>
       <c r="B89" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C89" t="str">
         <v>Yes</v>
@@ -3535,7 +3535,7 @@
         <v>Sophie and the Giants</v>
       </c>
       <c r="B90" t="str">
-        <v>San Marino, Germany</v>
+        <v>San Marino 🇸🇲, Germany 🇩🇪</v>
       </c>
       <c r="C90" t="str">
         <v>Yes</v>
@@ -3570,7 +3570,7 @@
         <v>Tamta</v>
       </c>
       <c r="B91" t="str">
-        <v>Greece, Georgia</v>
+        <v>Greece 🇬🇷, Georgia 🇬🇪</v>
       </c>
       <c r="C91" t="str">
         <v>Yes</v>
@@ -3605,7 +3605,7 @@
         <v>Troye Sivan</v>
       </c>
       <c r="B92" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C92" t="str">
         <v>Yes</v>
@@ -3640,7 +3640,7 @@
         <v>Victoria</v>
       </c>
       <c r="B93" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C93" t="str">
         <v>Yes</v>
@@ -3675,7 +3675,7 @@
         <v>Vitaa</v>
       </c>
       <c r="B94" t="str">
-        <v>France, Morocco</v>
+        <v>France 🇫🇷, Morocco 🇲🇦</v>
       </c>
       <c r="C94" t="str">
         <v>Yes</v>
@@ -3710,7 +3710,7 @@
         <v>WRS</v>
       </c>
       <c r="B95" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C95" t="str">
         <v>Yes</v>
@@ -3745,7 +3745,7 @@
         <v>Years&amp;Years</v>
       </c>
       <c r="B96" t="str">
-        <v>Australia, United Kingdom</v>
+        <v>Australia 🇦🇺, United Kingdom 🇬🇧</v>
       </c>
       <c r="C96" t="str">
         <v>Yes</v>
@@ -3780,7 +3780,7 @@
         <v>YLL LIMANI</v>
       </c>
       <c r="B97" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C97" t="str">
         <v>Yes</v>
@@ -3815,7 +3815,7 @@
         <v>Yseult</v>
       </c>
       <c r="B98" t="str">
-        <v>Monaco, France</v>
+        <v>Monaco 🇲🇨, France 🇫🇷</v>
       </c>
       <c r="C98" t="str">
         <v>Yes</v>
@@ -3850,7 +3850,7 @@
         <v>Zara Larsson</v>
       </c>
       <c r="B99" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C99" t="str">
         <v>Yes</v>
@@ -3885,7 +3885,7 @@
         <v>ZIAN</v>
       </c>
       <c r="B100" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C100" t="str">
         <v>Yes</v>
@@ -3920,7 +3920,7 @@
         <v>Zivert</v>
       </c>
       <c r="B101" t="str">
-        <v>Ukraine, Russia</v>
+        <v>Ukraine 🇺🇦, Russia 🇷🇺</v>
       </c>
       <c r="C101" t="str">
         <v>Yes</v>
@@ -3955,7 +3955,7 @@
         <v>47Soul</v>
       </c>
       <c r="B102" t="str">
-        <v>Jordan</v>
+        <v>Jordan 🇯🇴</v>
       </c>
       <c r="C102" t="str">
         <v>Yes</v>
@@ -3990,7 +3990,7 @@
         <v>ABBA</v>
       </c>
       <c r="B103" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C103" t="str">
         <v>Yes</v>
@@ -4025,7 +4025,7 @@
         <v>Adam Bü</v>
       </c>
       <c r="B104" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C104" t="str">
         <v>Yes</v>
@@ -4060,7 +4060,7 @@
         <v>Adé</v>
       </c>
       <c r="B105" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C105" t="str">
         <v>Yes</v>
@@ -4095,7 +4095,7 @@
         <v>Adonis</v>
       </c>
       <c r="B106" t="str">
-        <v>Jordan</v>
+        <v>Jordan 🇯🇴</v>
       </c>
       <c r="C106" t="str">
         <v>Yes</v>
@@ -4130,7 +4130,7 @@
         <v>Adonxs</v>
       </c>
       <c r="B107" t="str">
-        <v>Slovakia</v>
+        <v>Slovakia 🇸🇰</v>
       </c>
       <c r="C107" t="str">
         <v>Yes</v>
@@ -4165,7 +4165,7 @@
         <v>Agnes</v>
       </c>
       <c r="B108" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C108" t="str">
         <v>Yes</v>
@@ -4200,7 +4200,7 @@
         <v>Aiko</v>
       </c>
       <c r="B109" t="str">
-        <v>Czechia</v>
+        <v>Czechia 🇨🇿</v>
       </c>
       <c r="C109" t="str">
         <v>Yes</v>
@@ -4235,7 +4235,7 @@
         <v>Aimalashy</v>
       </c>
       <c r="B110" t="str">
-        <v>Kazakhstan</v>
+        <v>Kazakhstan 🇰🇿</v>
       </c>
       <c r="C110" t="str">
         <v>Yes</v>
@@ -4270,7 +4270,7 @@
         <v>Aimée</v>
       </c>
       <c r="B111" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C111" t="str">
         <v>Yes</v>
@@ -4305,7 +4305,7 @@
         <v>Aitana</v>
       </c>
       <c r="B112" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C112" t="str">
         <v>Yes</v>
@@ -4340,7 +4340,7 @@
         <v>Albina</v>
       </c>
       <c r="B113" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C113" t="str">
         <v>Yes</v>
@@ -4375,7 +4375,7 @@
         <v>Albino</v>
       </c>
       <c r="B114" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C114" t="str">
         <v>Yes</v>
@@ -4410,7 +4410,7 @@
         <v>Aleksandra Janeva</v>
       </c>
       <c r="B115" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C115" t="str">
         <v>Yes</v>
@@ -4445,7 +4445,7 @@
         <v>Aleksandra Radović</v>
       </c>
       <c r="B116" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C116" t="str">
         <v>Yes</v>
@@ -4480,7 +4480,7 @@
         <v>Alessandra</v>
       </c>
       <c r="B117" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C117" t="str">
         <v>Yes</v>
@@ -4515,7 +4515,7 @@
         <v>Alessandra Amoroso</v>
       </c>
       <c r="B118" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C118" t="str">
         <v>Yes</v>
@@ -4550,7 +4550,7 @@
         <v>Alesso</v>
       </c>
       <c r="B119" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C119" t="str">
         <v>Yes</v>
@@ -4585,7 +4585,7 @@
         <v>Alex Flóvent</v>
       </c>
       <c r="B120" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C120" t="str">
         <v>Yes</v>
@@ -4620,7 +4620,7 @@
         <v>Alex Mattson</v>
       </c>
       <c r="B121" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C121" t="str">
         <v>Yes</v>
@@ -4655,7 +4655,7 @@
         <v>Alex Vargas</v>
       </c>
       <c r="B122" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C122" t="str">
         <v>Yes</v>
@@ -4690,7 +4690,7 @@
         <v>Aleyna Tilki</v>
       </c>
       <c r="B123" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C123" t="str">
         <v>Yes</v>
@@ -4725,7 +4725,7 @@
         <v>ALFA</v>
       </c>
       <c r="B124" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C124" t="str">
         <v>Yes</v>
@@ -4760,7 +4760,7 @@
         <v>Alice Chater</v>
       </c>
       <c r="B125" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C125" t="str">
         <v>Yes</v>
@@ -4795,7 +4795,7 @@
         <v>Alina Pash</v>
       </c>
       <c r="B126" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C126" t="str">
         <v>Yes</v>
@@ -4830,7 +4830,7 @@
         <v>Alkonost of Balkan</v>
       </c>
       <c r="B127" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C127" t="str">
         <v>Yes</v>
@@ -4865,7 +4865,7 @@
         <v>Alternosfera</v>
       </c>
       <c r="B128" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C128" t="str">
         <v>Yes</v>
@@ -4900,7 +4900,7 @@
         <v>Álvaro de Luna</v>
       </c>
       <c r="B129" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C129" t="str">
         <v>Yes</v>
@@ -4935,7 +4935,7 @@
         <v>Amanda Tenfjord</v>
       </c>
       <c r="B130" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C130" t="str">
         <v>Yes</v>
@@ -4970,7 +4970,7 @@
         <v>AMAYA</v>
       </c>
       <c r="B131" t="str">
-        <v>Slovenia</v>
+        <v>Slovenia 🇸🇮</v>
       </c>
       <c r="C131" t="str">
         <v>Yes</v>
@@ -5005,7 +5005,7 @@
         <v>AMI</v>
       </c>
       <c r="B132" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C132" t="str">
         <v>Yes</v>
@@ -5040,7 +5040,7 @@
         <v>Amir</v>
       </c>
       <c r="B133" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C133" t="str">
         <v>Yes</v>
@@ -5075,7 +5075,7 @@
         <v>Anastasia Ukolova</v>
       </c>
       <c r="B134" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C134" t="str">
         <v>Yes</v>
@@ -5110,7 +5110,7 @@
         <v>Andie Case</v>
       </c>
       <c r="B135" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C135" t="str">
         <v>Yes</v>
@@ -5145,7 +5145,7 @@
         <v>ANI</v>
       </c>
       <c r="B136" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C136" t="str">
         <v>Yes</v>
@@ -5180,7 +5180,7 @@
         <v>Ania Karwan</v>
       </c>
       <c r="B137" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C137" t="str">
         <v>Yes</v>
@@ -5215,7 +5215,7 @@
         <v>Anna Asti</v>
       </c>
       <c r="B138" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C138" t="str">
         <v>Yes</v>
@@ -5250,7 +5250,7 @@
         <v>Anna Vissi</v>
       </c>
       <c r="B139" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C139" t="str">
         <v>Yes</v>
@@ -5285,7 +5285,7 @@
         <v>Anna Zak</v>
       </c>
       <c r="B140" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C140" t="str">
         <v>Yes</v>
@@ -5320,7 +5320,7 @@
         <v>Anna-Sophie</v>
       </c>
       <c r="B141" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C141" t="str">
         <v>Yes</v>
@@ -5355,7 +5355,7 @@
         <v>Antonia Gigovska</v>
       </c>
       <c r="B142" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C142" t="str">
         <v>Yes</v>
@@ -5390,7 +5390,7 @@
         <v>António Zambujo</v>
       </c>
       <c r="B143" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C143" t="str">
         <v>Yes</v>
@@ -5425,7 +5425,7 @@
         <v>Antti Tuisku</v>
       </c>
       <c r="B144" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C144" t="str">
         <v>Yes</v>
@@ -5460,7 +5460,7 @@
         <v>Aöme</v>
       </c>
       <c r="B145" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C145" t="str">
         <v>Yes</v>
@@ -5495,7 +5495,7 @@
         <v>Apostolia Zoi</v>
       </c>
       <c r="B146" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C146" t="str">
         <v>Yes</v>
@@ -5530,7 +5530,7 @@
         <v>Arcadian</v>
       </c>
       <c r="B147" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C147" t="str">
         <v>Yes</v>
@@ -5565,7 +5565,7 @@
         <v>Arlissa</v>
       </c>
       <c r="B148" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C148" t="str">
         <v>Yes</v>
@@ -5600,7 +5600,7 @@
         <v>Artemas</v>
       </c>
       <c r="B149" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C149" t="str">
         <v>Yes</v>
@@ -5635,7 +5635,7 @@
         <v>Arwin</v>
       </c>
       <c r="B150" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C150" t="str">
         <v>Yes</v>
@@ -5670,7 +5670,7 @@
         <v>Asher Angel</v>
       </c>
       <c r="B151" t="str">
-        <v>Netherlands</v>
+        <v>Netherlands 🇳🇱</v>
       </c>
       <c r="C151" t="str">
         <v>Yes</v>
@@ -5705,7 +5705,7 @@
         <v>Astrid S</v>
       </c>
       <c r="B152" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C152" t="str">
         <v>Yes</v>
@@ -5740,7 +5740,7 @@
         <v>Aurea</v>
       </c>
       <c r="B153" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C153" t="str">
         <v>Yes</v>
@@ -5775,7 +5775,7 @@
         <v>Ava Max</v>
       </c>
       <c r="B154" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C154" t="str">
         <v>Yes</v>
@@ -5810,7 +5810,7 @@
         <v>Avalan</v>
       </c>
       <c r="B155" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C155" t="str">
         <v>Yes</v>
@@ -5845,7 +5845,7 @@
         <v>AVEC</v>
       </c>
       <c r="B156" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C156" t="str">
         <v>Yes</v>
@@ -5880,7 +5880,7 @@
         <v>Aynur Aydin</v>
       </c>
       <c r="B157" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C157" t="str">
         <v>Yes</v>
@@ -5915,7 +5915,7 @@
         <v>Aziz</v>
       </c>
       <c r="B158" t="str">
-        <v>Jordan</v>
+        <v>Jordan 🇯🇴</v>
       </c>
       <c r="C158" t="str">
         <v>Yes</v>
@@ -5950,7 +5950,7 @@
         <v>B3N</v>
       </c>
       <c r="B159" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C159" t="str">
         <v>Yes</v>
@@ -5985,7 +5985,7 @@
         <v>Badr Soultan</v>
       </c>
       <c r="B160" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C160" t="str">
         <v>Yes</v>
@@ -6020,7 +6020,7 @@
         <v>Balti</v>
       </c>
       <c r="B161" t="str">
-        <v>Tunesia</v>
+        <v>Tunesia undefined</v>
       </c>
       <c r="C161" t="str">
         <v>Yes</v>
@@ -6055,7 +6055,7 @@
         <v>Bárbara Bandeira</v>
       </c>
       <c r="B162" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C162" t="str">
         <v>Yes</v>
@@ -6090,7 +6090,7 @@
         <v>Bazart</v>
       </c>
       <c r="B163" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C163" t="str">
         <v>Yes</v>
@@ -6125,7 +6125,7 @@
         <v>Becky Hill</v>
       </c>
       <c r="B164" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C164" t="str">
         <v>Yes</v>
@@ -6160,7 +6160,7 @@
         <v>Bedwetters</v>
       </c>
       <c r="B165" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C165" t="str">
         <v>Yes</v>
@@ -6195,7 +6195,7 @@
         <v>Belinda</v>
       </c>
       <c r="B166" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C166" t="str">
         <v>Yes</v>
@@ -6230,7 +6230,7 @@
         <v>Ben El Tavori</v>
       </c>
       <c r="B167" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C167" t="str">
         <v>Yes</v>
@@ -6265,7 +6265,7 @@
         <v>Ben Hazlewood</v>
       </c>
       <c r="B168" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C168" t="str">
         <v>Yes</v>
@@ -6300,7 +6300,7 @@
         <v>Berkes Olivér</v>
       </c>
       <c r="B169" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C169" t="str">
         <v>Yes</v>
@@ -6335,7 +6335,7 @@
         <v>Berre</v>
       </c>
       <c r="B170" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C170" t="str">
         <v>Yes</v>
@@ -6370,7 +6370,7 @@
         <v>Bia Caboz</v>
       </c>
       <c r="B171" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C171" t="str">
         <v>Yes</v>
@@ -6405,7 +6405,7 @@
         <v>Bianka</v>
       </c>
       <c r="B172" t="str">
-        <v>Belarus</v>
+        <v>Belarus 🇧🇾</v>
       </c>
       <c r="C172" t="str">
         <v>Yes</v>
@@ -6440,7 +6440,7 @@
         <v>BIASED BEAST</v>
       </c>
       <c r="B173" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C173" t="str">
         <v>Yes</v>
@@ -6475,7 +6475,7 @@
         <v>Birnir</v>
       </c>
       <c r="B174" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C174" t="str">
         <v>Yes</v>
@@ -6510,7 +6510,7 @@
         <v>Björn Dixgård</v>
       </c>
       <c r="B175" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C175" t="str">
         <v>Yes</v>
@@ -6545,7 +6545,7 @@
         <v>Blind Channel</v>
       </c>
       <c r="B176" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C176" t="str">
         <v>Yes</v>
@@ -6580,7 +6580,7 @@
         <v>Bløf</v>
       </c>
       <c r="B177" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C177" t="str">
         <v>Yes</v>
@@ -6615,7 +6615,7 @@
         <v>Blow</v>
       </c>
       <c r="B178" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C178" t="str">
         <v>Yes</v>
@@ -6650,7 +6650,7 @@
         <v>Bojan Marović</v>
       </c>
       <c r="B179" t="str">
-        <v>Montenegro</v>
+        <v>Montenegro 🇲🇪</v>
       </c>
       <c r="C179" t="str">
         <v>Yes</v>
@@ -6685,7 +6685,7 @@
         <v>Božo Vrećo</v>
       </c>
       <c r="B180" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Bosnia and Herzegovina 🇧🇦</v>
       </c>
       <c r="C180" t="str">
         <v>Yes</v>
@@ -6720,7 +6720,7 @@
         <v>BRESKVICA</v>
       </c>
       <c r="B181" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C181" t="str">
         <v>Yes</v>
@@ -6755,7 +6755,7 @@
         <v>Brooke</v>
       </c>
       <c r="B182" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C182" t="str">
         <v>Yes</v>
@@ -6790,7 +6790,7 @@
         <v>Brooke Combe</v>
       </c>
       <c r="B183" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C183" t="str">
         <v>Yes</v>
@@ -6825,7 +6825,7 @@
         <v>Buba Espinho</v>
       </c>
       <c r="B184" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C184" t="str">
         <v>Yes</v>
@@ -6860,7 +6860,7 @@
         <v>Caity Baser</v>
       </c>
       <c r="B185" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C185" t="str">
         <v>Yes</v>
@@ -6895,7 +6895,7 @@
         <v>Calema</v>
       </c>
       <c r="B186" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C186" t="str">
         <v>Yes</v>
@@ -6930,7 +6930,7 @@
         <v>Camélia  Jordana</v>
       </c>
       <c r="B187" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C187" t="str">
         <v>Yes</v>
@@ -6965,7 +6965,7 @@
         <v>Camélia Jordana</v>
       </c>
       <c r="B188" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C188" t="str">
         <v>Yes</v>
@@ -7000,7 +7000,7 @@
         <v>Camille</v>
       </c>
       <c r="B189" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C189" t="str">
         <v>Yes</v>
@@ -7035,7 +7035,7 @@
         <v>Capital T</v>
       </c>
       <c r="B190" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C190" t="str">
         <v>Yes</v>
@@ -7070,7 +7070,7 @@
         <v>Carla's Dreams</v>
       </c>
       <c r="B191" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C191" t="str">
         <v>Yes</v>
@@ -7105,7 +7105,7 @@
         <v>Carmen</v>
       </c>
       <c r="B192" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C192" t="str">
         <v>Yes</v>
@@ -7140,7 +7140,7 @@
         <v>Carole Samaha</v>
       </c>
       <c r="B193" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C193" t="str">
         <v>Yes</v>
@@ -7175,7 +7175,7 @@
         <v>Casa</v>
       </c>
       <c r="B194" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C194" t="str">
         <v>Yes</v>
@@ -7210,7 +7210,7 @@
         <v>Casi</v>
       </c>
       <c r="B195" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C195" t="str">
         <v>Yes</v>
@@ -7245,7 +7245,7 @@
         <v>Chaild</v>
       </c>
       <c r="B196" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C196" t="str">
         <v>Yes</v>
@@ -7280,7 +7280,7 @@
         <v>Chef' Special</v>
       </c>
       <c r="B197" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C197" t="str">
         <v>Yes</v>
@@ -7315,7 +7315,7 @@
         <v>Chiara</v>
       </c>
       <c r="B198" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C198" t="str">
         <v>Yes</v>
@@ -7350,7 +7350,7 @@
         <v>Chiara Castelli</v>
       </c>
       <c r="B199" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C199" t="str">
         <v>Yes</v>
@@ -7385,7 +7385,7 @@
         <v>Chisu</v>
       </c>
       <c r="B200" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C200" t="str">
         <v>Yes</v>
@@ -7420,7 +7420,7 @@
         <v>Chris de Sarandy</v>
       </c>
       <c r="B201" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C201" t="str">
         <v>Yes</v>
@@ -7455,7 +7455,7 @@
         <v>Chris Holsten</v>
       </c>
       <c r="B202" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C202" t="str">
         <v>Yes</v>
@@ -7490,7 +7490,7 @@
         <v>Christina Stürmer</v>
       </c>
       <c r="B203" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C203" t="str">
         <v>Yes</v>
@@ -7525,7 +7525,7 @@
         <v>Christos Mastoras</v>
       </c>
       <c r="B204" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C204" t="str">
         <v>Yes</v>
@@ -7560,7 +7560,7 @@
         <v>Cian Ducrot</v>
       </c>
       <c r="B205" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C205" t="str">
         <v>Yes</v>
@@ -7595,7 +7595,7 @@
         <v>Clara Luciani</v>
       </c>
       <c r="B206" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C206" t="str">
         <v>Yes</v>
@@ -7630,7 +7630,7 @@
         <v>Clementine</v>
       </c>
       <c r="B207" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C207" t="str">
         <v>Yes</v>
@@ -7665,7 +7665,7 @@
         <v>CMC$</v>
       </c>
       <c r="B208" t="str">
-        <v>Netherlands</v>
+        <v>Netherlands 🇳🇱</v>
       </c>
       <c r="C208" t="str">
         <v>Yes</v>
@@ -7700,7 +7700,7 @@
         <v>CONAN OSIRIS</v>
       </c>
       <c r="B209" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C209" t="str">
         <v>Yes</v>
@@ -7735,7 +7735,7 @@
         <v>Conchita Wurst</v>
       </c>
       <c r="B210" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C210" t="str">
         <v>Yes</v>
@@ -7770,7 +7770,7 @@
         <v>Coyot</v>
       </c>
       <c r="B211" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C211" t="str">
         <v>Yes</v>
@@ -7805,7 +7805,7 @@
         <v>CRIMER</v>
       </c>
       <c r="B212" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C212" t="str">
         <v>Yes</v>
@@ -7840,7 +7840,7 @@
         <v>Cyhra</v>
       </c>
       <c r="B213" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C213" t="str">
         <v>Yes</v>
@@ -7875,7 +7875,7 @@
         <v>Cyrus</v>
       </c>
       <c r="B214" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C214" t="str">
         <v>Yes</v>
@@ -7910,7 +7910,7 @@
         <v>Dađi FreyX</v>
       </c>
       <c r="B215" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C215" t="str">
         <v>Yes</v>
@@ -7945,7 +7945,7 @@
         <v>DADJU</v>
       </c>
       <c r="B216" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C216" t="str">
         <v>Yes</v>
@@ -7980,7 +7980,7 @@
         <v>Dado Polumenta</v>
       </c>
       <c r="B217" t="str">
-        <v>Montenegro</v>
+        <v>Montenegro 🇲🇪</v>
       </c>
       <c r="C217" t="str">
         <v>Yes</v>
@@ -8015,7 +8015,7 @@
         <v>Dami Im</v>
       </c>
       <c r="B218" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C218" t="str">
         <v>Yes</v>
@@ -8050,7 +8050,7 @@
         <v>ĐANA</v>
       </c>
       <c r="B219" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C219" t="str">
         <v>Yes</v>
@@ -8085,7 +8085,7 @@
         <v>Daniel Schuhmacher</v>
       </c>
       <c r="B220" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C220" t="str">
         <v>Yes</v>
@@ -8120,7 +8120,7 @@
         <v>Daphne Lawrence</v>
       </c>
       <c r="B221" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C221" t="str">
         <v>Yes</v>
@@ -8155,7 +8155,7 @@
         <v>DARA</v>
       </c>
       <c r="B222" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C222" t="str">
         <v>Yes</v>
@@ -8190,7 +8190,7 @@
         <v>Darius</v>
       </c>
       <c r="B223" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C223" t="str">
         <v>Yes</v>
@@ -8225,7 +8225,7 @@
         <v>David Bisbal</v>
       </c>
       <c r="B224" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C224" t="str">
         <v>Yes</v>
@@ -8260,7 +8260,7 @@
         <v>Davina Michelle</v>
       </c>
       <c r="B225" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C225" t="str">
         <v>Yes</v>
@@ -8295,7 +8295,7 @@
         <v>De Liri</v>
       </c>
       <c r="B226" t="str">
-        <v>Slovenia</v>
+        <v>Slovenia 🇸🇮</v>
       </c>
       <c r="C226" t="str">
         <v>Yes</v>
@@ -8330,7 +8330,7 @@
         <v>Dean Lewis</v>
       </c>
       <c r="B227" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C227" t="str">
         <v>Yes</v>
@@ -8365,7 +8365,7 @@
         <v>Denise</v>
       </c>
       <c r="B228" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C228" t="str">
         <v>Yes</v>
@@ -8400,7 +8400,7 @@
         <v>DI-RECT</v>
       </c>
       <c r="B229" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C229" t="str">
         <v>Yes</v>
@@ -8435,7 +8435,7 @@
         <v>Diana Harutyunyan</v>
       </c>
       <c r="B230" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C230" t="str">
         <v>Yes</v>
@@ -8470,7 +8470,7 @@
         <v>Dima Bilan</v>
       </c>
       <c r="B231" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C231" t="str">
         <v>Yes</v>
@@ -8505,7 +8505,7 @@
         <v>Dimash Qudaibergen</v>
       </c>
       <c r="B232" t="str">
-        <v>Kazakhstan</v>
+        <v>Kazakhstan 🇰🇿</v>
       </c>
       <c r="C232" t="str">
         <v>Yes</v>
@@ -8540,7 +8540,7 @@
         <v>Dimitris Theodosiadis</v>
       </c>
       <c r="B233" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C233" t="str">
         <v>Yes</v>
@@ -8575,7 +8575,7 @@
         <v>Dino Merlin</v>
       </c>
       <c r="B234" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Bosnia and Herzegovina 🇧🇦</v>
       </c>
       <c r="C234" t="str">
         <v>Yes</v>
@@ -8610,7 +8610,7 @@
         <v>Diplo</v>
       </c>
       <c r="B235" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C235" t="str">
         <v>Yes</v>
@@ -8645,7 +8645,7 @@
         <v>DJ Damyan</v>
       </c>
       <c r="B236" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C236" t="str">
         <v>Yes</v>
@@ -8680,7 +8680,7 @@
         <v>Dj Youcef</v>
       </c>
       <c r="B237" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C237" t="str">
         <v>Yes</v>
@@ -8715,7 +8715,7 @@
         <v>DODO</v>
       </c>
       <c r="B238" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C238" t="str">
         <v>Yes</v>
@@ -8750,7 +8750,7 @@
         <v>Dons</v>
       </c>
       <c r="B239" t="str">
-        <v>Latvia</v>
+        <v>Latvia 🇱🇻</v>
       </c>
       <c r="C239" t="str">
         <v>Yes</v>
@@ -8785,7 +8785,7 @@
         <v>Doran Dragovic</v>
       </c>
       <c r="B240" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C240" t="str">
         <v>Yes</v>
@@ -8820,7 +8820,7 @@
         <v>Dotter</v>
       </c>
       <c r="B241" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C241" t="str">
         <v>Yes</v>
@@ -8855,7 +8855,7 @@
         <v>Drew Sycamore</v>
       </c>
       <c r="B242" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C242" t="str">
         <v>Yes</v>
@@ -8890,7 +8890,7 @@
         <v>Duncan Laurence</v>
       </c>
       <c r="B243" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C243" t="str">
         <v>Yes</v>
@@ -8925,7 +8925,7 @@
         <v>Dzejla Ramovic</v>
       </c>
       <c r="B244" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Bosnia and Herzegovina 🇧🇦</v>
       </c>
       <c r="C244" t="str">
         <v>Yes</v>
@@ -8960,7 +8960,7 @@
         <v>Dzordzi</v>
       </c>
       <c r="B245" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C245" t="str">
         <v>Yes</v>
@@ -8995,7 +8995,7 @@
         <v>E.G.O.</v>
       </c>
       <c r="B246" t="str">
-        <v>Lithuania</v>
+        <v>Lithuania 🇱🇹</v>
       </c>
       <c r="C246" t="str">
         <v>Yes</v>
@@ -9030,7 +9030,7 @@
         <v>Edis</v>
       </c>
       <c r="B247" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C247" t="str">
         <v>Yes</v>
@@ -9065,7 +9065,7 @@
         <v>Edita</v>
       </c>
       <c r="B248" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C248" t="str">
         <v>Yes</v>
@@ -9100,7 +9100,7 @@
         <v>Eefje de Visser</v>
       </c>
       <c r="B249" t="str">
-        <v>Netherlands</v>
+        <v>Netherlands 🇳🇱</v>
       </c>
       <c r="C249" t="str">
         <v>Yes</v>
@@ -9135,7 +9135,7 @@
         <v>Egor Kreed</v>
       </c>
       <c r="B250" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C250" t="str">
         <v>Yes</v>
@@ -9170,7 +9170,7 @@
         <v>Eldar</v>
       </c>
       <c r="B251" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C251" t="str">
         <v>Yes</v>
@@ -9205,7 +9205,7 @@
         <v>Elena Tsagrinou</v>
       </c>
       <c r="B252" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C252" t="str">
         <v>Yes</v>
@@ -9240,7 +9240,7 @@
         <v>Elhaida Dani</v>
       </c>
       <c r="B253" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C253" t="str">
         <v>Yes</v>
@@ -9275,7 +9275,7 @@
         <v>Eliana Tidhar</v>
       </c>
       <c r="B254" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C254" t="str">
         <v>Yes</v>
@@ -9310,7 +9310,7 @@
         <v>Elias Kaskinen</v>
       </c>
       <c r="B255" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C255" t="str">
         <v>Yes</v>
@@ -9345,7 +9345,7 @@
         <v>Eluveitie</v>
       </c>
       <c r="B256" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C256" t="str">
         <v>Yes</v>
@@ -9380,7 +9380,7 @@
         <v>Elvin Babazade</v>
       </c>
       <c r="B257" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C257" t="str">
         <v>Yes</v>
@@ -9415,7 +9415,7 @@
         <v>EMAA</v>
       </c>
       <c r="B258" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C258" t="str">
         <v>Yes</v>
@@ -9450,7 +9450,7 @@
         <v>Emeli Sandé</v>
       </c>
       <c r="B259" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C259" t="str">
         <v>Yes</v>
@@ -9485,7 +9485,7 @@
         <v>EMILIA</v>
       </c>
       <c r="B260" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C260" t="str">
         <v>Yes</v>
@@ -9520,7 +9520,7 @@
         <v>Emilian</v>
       </c>
       <c r="B261" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C261" t="str">
         <v>Yes</v>
@@ -9555,7 +9555,7 @@
         <v>Emma</v>
       </c>
       <c r="B262" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C262" t="str">
         <v>Yes</v>
@@ -9590,7 +9590,7 @@
         <v>Eneli</v>
       </c>
       <c r="B263" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C263" t="str">
         <v>Yes</v>
@@ -9625,7 +9625,7 @@
         <v>Eni Jurisic</v>
       </c>
       <c r="B264" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C264" t="str">
         <v>Yes</v>
@@ -9660,7 +9660,7 @@
         <v>Era Istrefi</v>
       </c>
       <c r="B265" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C265" t="str">
         <v>Yes</v>
@@ -9695,7 +9695,7 @@
         <v>Ermal Meta</v>
       </c>
       <c r="B266" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C266" t="str">
         <v>Yes</v>
@@ -9730,7 +9730,7 @@
         <v>Ester Pony</v>
       </c>
       <c r="B267" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C267" t="str">
         <v>Yes</v>
@@ -9765,7 +9765,7 @@
         <v>Eyelar</v>
       </c>
       <c r="B268" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C268" t="str">
         <v>Yes</v>
@@ -9800,7 +9800,7 @@
         <v>EYJAA</v>
       </c>
       <c r="B269" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C269" t="str">
         <v>Yes</v>
@@ -9835,7 +9835,7 @@
         <v>FASHION FREAK</v>
       </c>
       <c r="B270" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C270" t="str">
         <v>Yes</v>
@@ -9870,7 +9870,7 @@
         <v>FAST BOY</v>
       </c>
       <c r="B271" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C271" t="str">
         <v>Yes</v>
@@ -9905,7 +9905,7 @@
         <v>Fatal Error</v>
       </c>
       <c r="B272" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C272" t="str">
         <v>Yes</v>
@@ -9940,7 +9940,7 @@
         <v>Feder</v>
       </c>
       <c r="B273" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C273" t="str">
         <v>Yes</v>
@@ -9975,7 +9975,7 @@
         <v>Fedez</v>
       </c>
       <c r="B274" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C274" t="str">
         <v>Yes</v>
@@ -10010,7 +10010,7 @@
         <v>Felix Jaehn</v>
       </c>
       <c r="B275" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C275" t="str">
         <v>Yes</v>
@@ -10045,7 +10045,7 @@
         <v>Finlay</v>
       </c>
       <c r="B276" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C276" t="str">
         <v>Yes</v>
@@ -10080,7 +10080,7 @@
         <v>Fishbach</v>
       </c>
       <c r="B277" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C277" t="str">
         <v>Yes</v>
@@ -10115,7 +10115,7 @@
         <v>Flomine</v>
       </c>
       <c r="B278" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C278" t="str">
         <v>Yes</v>
@@ -10150,7 +10150,7 @@
         <v>Floor Jansen</v>
       </c>
       <c r="B279" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C279" t="str">
         <v>Yes</v>
@@ -10185,7 +10185,7 @@
         <v>For King and Country</v>
       </c>
       <c r="B280" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C280" t="str">
         <v>Yes</v>
@@ -10220,7 +10220,7 @@
         <v>Fr. Rob Galea</v>
       </c>
       <c r="B281" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C281" t="str">
         <v>Yes</v>
@@ -10255,7 +10255,7 @@
         <v>Francesca Michelin</v>
       </c>
       <c r="B282" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C282" t="str">
         <v>Yes</v>
@@ -10290,7 +10290,7 @@
         <v>Franka</v>
       </c>
       <c r="B283" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C283" t="str">
         <v>Yes</v>
@@ -10325,7 +10325,7 @@
         <v>Frantzis</v>
       </c>
       <c r="B284" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C284" t="str">
         <v>Yes</v>
@@ -10360,7 +10360,7 @@
         <v>Fred Roberts</v>
       </c>
       <c r="B285" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C285" t="str">
         <v>Yes</v>
@@ -10395,7 +10395,7 @@
         <v>Funda</v>
       </c>
       <c r="B286" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C286" t="str">
         <v>Yes</v>
@@ -10430,7 +10430,7 @@
         <v>FY</v>
       </c>
       <c r="B287" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C287" t="str">
         <v>Yes</v>
@@ -10465,7 +10465,7 @@
         <v>Gaia</v>
       </c>
       <c r="B288" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C288" t="str">
         <v>Yes</v>
@@ -10500,7 +10500,7 @@
         <v>GALE</v>
       </c>
       <c r="B289" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C289" t="str">
         <v>Yes</v>
@@ -10535,7 +10535,7 @@
         <v>Galena</v>
       </c>
       <c r="B290" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C290" t="str">
         <v>Yes</v>
@@ -10570,7 +10570,7 @@
         <v>GASOIIA</v>
       </c>
       <c r="B291" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C291" t="str">
         <v>Yes</v>
@@ -10605,7 +10605,7 @@
         <v>Geike Arnaert</v>
       </c>
       <c r="B292" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C292" t="str">
         <v>Yes</v>
@@ -10640,7 +10640,7 @@
         <v>George Ezra</v>
       </c>
       <c r="B293" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C293" t="str">
         <v>Yes</v>
@@ -10675,7 +10675,7 @@
         <v>George Sabanis</v>
       </c>
       <c r="B294" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C294" t="str">
         <v>Yes</v>
@@ -10710,7 +10710,7 @@
         <v>GEZZA</v>
       </c>
       <c r="B295" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C295" t="str">
         <v>Yes</v>
@@ -10745,7 +10745,7 @@
         <v>Giant Rooks</v>
       </c>
       <c r="B296" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C296" t="str">
         <v>Yes</v>
@@ -10780,7 +10780,7 @@
         <v>Gio Bermejo</v>
       </c>
       <c r="B297" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C297" t="str">
         <v>Yes</v>
@@ -10815,7 +10815,7 @@
         <v>Giorgos Papadopoulos</v>
       </c>
       <c r="B298" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C298" t="str">
         <v>Yes</v>
@@ -10850,7 +10850,7 @@
         <v>Giorgos Sabanis</v>
       </c>
       <c r="B299" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C299" t="str">
         <v>Yes</v>
@@ -10885,7 +10885,7 @@
         <v>Gloria Gaynor</v>
       </c>
       <c r="B300" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C300" t="str">
         <v>Yes</v>
@@ -10920,7 +10920,7 @@
         <v>Glowie</v>
       </c>
       <c r="B301" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C301" t="str">
         <v>Yes</v>
@@ -10955,7 +10955,7 @@
         <v>Grace Carter</v>
       </c>
       <c r="B302" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C302" t="str">
         <v>Yes</v>
@@ -10990,7 +10990,7 @@
         <v>Gregor Hägele</v>
       </c>
       <c r="B303" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C303" t="str">
         <v>Yes</v>
@@ -11025,7 +11025,7 @@
         <v>GROSU</v>
       </c>
       <c r="B304" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C304" t="str">
         <v>Yes</v>
@@ -11060,7 +11060,7 @@
         <v>Gwennili</v>
       </c>
       <c r="B305" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C305" t="str">
         <v>Yes</v>
@@ -11095,7 +11095,7 @@
         <v>Hadise</v>
       </c>
       <c r="B306" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C306" t="str">
         <v>Yes</v>
@@ -11130,7 +11130,7 @@
         <v>HAEVN</v>
       </c>
       <c r="B307" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C307" t="str">
         <v>Yes</v>
@@ -11165,7 +11165,7 @@
         <v>Haifa Wehbe</v>
       </c>
       <c r="B308" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C308" t="str">
         <v>Yes</v>
@@ -11200,7 +11200,7 @@
         <v>Helena Paparizou</v>
       </c>
       <c r="B309" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C309" t="str">
         <v>Yes</v>
@@ -11235,7 +11235,7 @@
         <v>Helene Fischer</v>
       </c>
       <c r="B310" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C310" t="str">
         <v>Yes</v>
@@ -11270,7 +11270,7 @@
         <v>HOLY PEAKS</v>
       </c>
       <c r="B311" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C311" t="str">
         <v>Yes</v>
@@ -11305,7 +11305,7 @@
         <v>Honeybeast</v>
       </c>
       <c r="B312" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C312" t="str">
         <v>Yes</v>
@@ -11340,7 +11340,7 @@
         <v>Hrdza</v>
       </c>
       <c r="B313" t="str">
-        <v>Slovakia</v>
+        <v>Slovakia 🇸🇰</v>
       </c>
       <c r="C313" t="str">
         <v>Yes</v>
@@ -11375,7 +11375,7 @@
         <v>Hugo Helmig</v>
       </c>
       <c r="B314" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C314" t="str">
         <v>Yes</v>
@@ -11410,7 +11410,7 @@
         <v>HUNGER</v>
       </c>
       <c r="B315" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C315" t="str">
         <v>Yes</v>
@@ -11445,7 +11445,7 @@
         <v>Hunt</v>
       </c>
       <c r="B316" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C316" t="str">
         <v>Yes</v>
@@ -11480,7 +11480,7 @@
         <v>Huntza</v>
       </c>
       <c r="B317" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C317" t="str">
         <v>Yes</v>
@@ -11515,7 +11515,7 @@
         <v>Hurricane</v>
       </c>
       <c r="B318" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C318" t="str">
         <v>Yes</v>
@@ -11550,7 +11550,7 @@
         <v>Iasonas Mandilas</v>
       </c>
       <c r="B319" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C319" t="str">
         <v>Yes</v>
@@ -11585,7 +11585,7 @@
         <v>IBE</v>
       </c>
       <c r="B320" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C320" t="str">
         <v>Yes</v>
@@ -11620,7 +11620,7 @@
         <v>Ida Laurberg</v>
       </c>
       <c r="B321" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C321" t="str">
         <v>Yes</v>
@@ -11655,7 +11655,7 @@
         <v>Iggy Azalea</v>
       </c>
       <c r="B322" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C322" t="str">
         <v>Yes</v>
@@ -11690,7 +11690,7 @@
         <v>Ilkay Sencan</v>
       </c>
       <c r="B323" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C323" t="str">
         <v>Yes</v>
@@ -11725,7 +11725,7 @@
         <v>Ilse DeLange</v>
       </c>
       <c r="B324" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C324" t="str">
         <v>Yes</v>
@@ -11760,7 +11760,7 @@
         <v>Ina Regen</v>
       </c>
       <c r="B325" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C325" t="str">
         <v>Yes</v>
@@ -11795,7 +11795,7 @@
         <v>INJI</v>
       </c>
       <c r="B326" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C326" t="str">
         <v>Yes</v>
@@ -11830,7 +11830,7 @@
         <v>Ioana Ignat</v>
       </c>
       <c r="B327" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C327" t="str">
         <v>Yes</v>
@@ -11865,7 +11865,7 @@
         <v>IRAIDA</v>
       </c>
       <c r="B328" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C328" t="str">
         <v>Yes</v>
@@ -11900,7 +11900,7 @@
         <v>Irem Derici</v>
       </c>
       <c r="B329" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C329" t="str">
         <v>Yes</v>
@@ -11935,7 +11935,7 @@
         <v>IRINA KAIRATOVNA</v>
       </c>
       <c r="B330" t="str">
-        <v>Kazakhstan</v>
+        <v>Kazakhstan 🇰🇿</v>
       </c>
       <c r="C330" t="str">
         <v>Yes</v>
@@ -11970,7 +11970,7 @@
         <v>IRU</v>
       </c>
       <c r="B331" t="str">
-        <v>Georgia</v>
+        <v>Georgia 🇬🇪</v>
       </c>
       <c r="C331" t="str">
         <v>Yes</v>
@@ -12005,7 +12005,7 @@
         <v>Iskrata</v>
       </c>
       <c r="B332" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C332" t="str">
         <v>Yes</v>
@@ -12040,7 +12040,7 @@
         <v>Issam Alnajjar</v>
       </c>
       <c r="B333" t="str">
-        <v>Jordan</v>
+        <v>Jordan 🇯🇴</v>
       </c>
       <c r="C333" t="str">
         <v>Yes</v>
@@ -12075,7 +12075,7 @@
         <v>ItaloBrothers</v>
       </c>
       <c r="B334" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C334" t="str">
         <v>Yes</v>
@@ -12110,7 +12110,7 @@
         <v>Jaap Reesema</v>
       </c>
       <c r="B335" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C335" t="str">
         <v>Yes</v>
@@ -12145,7 +12145,7 @@
         <v>Jack Rua</v>
       </c>
       <c r="B336" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C336" t="str">
         <v>Yes</v>
@@ -12180,7 +12180,7 @@
         <v>Jacques Houdek</v>
       </c>
       <c r="B337" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C337" t="str">
         <v>Yes</v>
@@ -12215,7 +12215,7 @@
         <v>Jake Reese</v>
       </c>
       <c r="B338" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C338" t="str">
         <v>Yes</v>
@@ -12250,7 +12250,7 @@
         <v>Jakob Busch</v>
       </c>
       <c r="B339" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C339" t="str">
         <v>Yes</v>
@@ -12285,7 +12285,7 @@
         <v>James TW</v>
       </c>
       <c r="B340" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C340" t="str">
         <v>Yes</v>
@@ -12320,7 +12320,7 @@
         <v>Jan-Marten Block</v>
       </c>
       <c r="B341" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C341" t="str">
         <v>Yes</v>
@@ -12355,7 +12355,7 @@
         <v>JAY MALY</v>
       </c>
       <c r="B342" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C342" t="str">
         <v>Yes</v>
@@ -12390,7 +12390,7 @@
         <v>Jeck</v>
       </c>
       <c r="B343" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C343" t="str">
         <v>Yes</v>
@@ -12425,7 +12425,7 @@
         <v>Jenifer</v>
       </c>
       <c r="B344" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C344" t="str">
         <v>Yes</v>
@@ -12460,7 +12460,7 @@
         <v>Jenni Vartiainen</v>
       </c>
       <c r="B345" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C345" t="str">
         <v>Yes</v>
@@ -12495,7 +12495,7 @@
         <v>JETLAG</v>
       </c>
       <c r="B346" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C346" t="str">
         <v>Yes</v>
@@ -12530,7 +12530,7 @@
         <v>João Paulo Rodrigues</v>
       </c>
       <c r="B347" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C347" t="str">
         <v>Yes</v>
@@ -12565,7 +12565,7 @@
         <v>Joker Out</v>
       </c>
       <c r="B348" t="str">
-        <v>Slovenia</v>
+        <v>Slovenia 🇸🇮</v>
       </c>
       <c r="C348" t="str">
         <v>Yes</v>
@@ -12600,7 +12600,7 @@
         <v>Jon Henrik Fjällgren</v>
       </c>
       <c r="B349" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C349" t="str">
         <v>Yes</v>
@@ -12635,7 +12635,7 @@
         <v>JONY</v>
       </c>
       <c r="B350" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C350" t="str">
         <v>Yes</v>
@@ -12670,7 +12670,7 @@
         <v>Jovani</v>
       </c>
       <c r="B351" t="str">
-        <v>Lithuania</v>
+        <v>Lithuania 🇱🇹</v>
       </c>
       <c r="C351" t="str">
         <v>Yes</v>
@@ -12705,7 +12705,7 @@
         <v>Joya Marleen</v>
       </c>
       <c r="B352" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C352" t="str">
         <v>Yes</v>
@@ -12740,7 +12740,7 @@
         <v>Julie</v>
       </c>
       <c r="B353" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C353" t="str">
         <v>Yes</v>
@@ -12775,7 +12775,7 @@
         <v>Juliette Armanet</v>
       </c>
       <c r="B354" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C354" t="str">
         <v>Yes</v>
@@ -12810,7 +12810,7 @@
         <v>JUMODADDY</v>
       </c>
       <c r="B355" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C355" t="str">
         <v>Yes</v>
@@ -12845,7 +12845,7 @@
         <v>Justyna Steczkowska</v>
       </c>
       <c r="B356" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C356" t="str">
         <v>Yes</v>
@@ -12880,7 +12880,7 @@
         <v>K-LANI</v>
       </c>
       <c r="B357" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C357" t="str">
         <v>Yes</v>
@@ -12915,7 +12915,7 @@
         <v>Käärijä</v>
       </c>
       <c r="B358" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C358" t="str">
         <v>Yes</v>
@@ -12950,7 +12950,7 @@
         <v>Kaleen</v>
       </c>
       <c r="B359" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C359" t="str">
         <v>Yes</v>
@@ -12985,7 +12985,7 @@
         <v>Kamshat Zholdybayeva</v>
       </c>
       <c r="B360" t="str">
-        <v>Kazakhstan</v>
+        <v>Kazakhstan 🇰🇿</v>
       </c>
       <c r="C360" t="str">
         <v>Yes</v>
@@ -13020,7 +13020,7 @@
         <v>Karolina Goceva</v>
       </c>
       <c r="B361" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C361" t="str">
         <v>Yes</v>
@@ -13055,7 +13055,7 @@
         <v>Karolina Stanisławczyk</v>
       </c>
       <c r="B362" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C362" t="str">
         <v>Yes</v>
@@ -13090,7 +13090,7 @@
         <v>Karsten Walter</v>
       </c>
       <c r="B363" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C363" t="str">
         <v>Yes</v>
@@ -13125,7 +13125,7 @@
         <v>Katerina Lioliou</v>
       </c>
       <c r="B364" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C364" t="str">
         <v>Yes</v>
@@ -13160,7 +13160,7 @@
         <v>Katie Melua</v>
       </c>
       <c r="B365" t="str">
-        <v>Georgia</v>
+        <v>Georgia 🇬🇪</v>
       </c>
       <c r="C365" t="str">
         <v>Yes</v>
@@ -13195,7 +13195,7 @@
         <v>Kayma</v>
       </c>
       <c r="B366" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C366" t="str">
         <v>Yes</v>
@@ -13230,7 +13230,7 @@
         <v>KDDK</v>
       </c>
       <c r="B367" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C367" t="str">
         <v>Yes</v>
@@ -13265,7 +13265,7 @@
         <v>Keiino</v>
       </c>
       <c r="B368" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C368" t="str">
         <v>Yes</v>
@@ -13300,7 +13300,7 @@
         <v>Kendji Girac</v>
       </c>
       <c r="B369" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C369" t="str">
         <v>Yes</v>
@@ -13335,7 +13335,7 @@
         <v>Kerimcan Durmaz</v>
       </c>
       <c r="B370" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C370" t="str">
         <v>Yes</v>
@@ -13370,7 +13370,7 @@
         <v>KERLI</v>
       </c>
       <c r="B371" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C371" t="str">
         <v>Yes</v>
@@ -13405,7 +13405,7 @@
         <v>KHS</v>
       </c>
       <c r="B372" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C372" t="str">
         <v>Yes</v>
@@ -13440,7 +13440,7 @@
         <v>Kim Begovic</v>
       </c>
       <c r="B373" t="str">
-        <v>Slovenia</v>
+        <v>Slovenia 🇸🇮</v>
       </c>
       <c r="C373" t="str">
         <v>Yes</v>
@@ -13475,7 +13475,7 @@
         <v>Kinder</v>
       </c>
       <c r="B374" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C374" t="str">
         <v>Yes</v>
@@ -13510,7 +13510,7 @@
         <v>Kings</v>
       </c>
       <c r="B375" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C375" t="str">
         <v>Yes</v>
@@ -13545,7 +13545,7 @@
         <v>Klangkarussell</v>
       </c>
       <c r="B376" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C376" t="str">
         <v>Yes</v>
@@ -13580,7 +13580,7 @@
         <v>Klavdia</v>
       </c>
       <c r="B377" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C377" t="str">
         <v>Yes</v>
@@ -13615,7 +13615,7 @@
         <v>Kler</v>
       </c>
       <c r="B378" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C378" t="str">
         <v>Yes</v>
@@ -13650,7 +13650,7 @@
         <v>Kobi Marimi</v>
       </c>
       <c r="B379" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C379" t="str">
         <v>Yes</v>
@@ -13685,7 +13685,7 @@
         <v>Konstantinos Arigos</v>
       </c>
       <c r="B380" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C380" t="str">
         <v>Yes</v>
@@ -13720,7 +13720,7 @@
         <v>Kristian Kostov</v>
       </c>
       <c r="B381" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C381" t="str">
         <v>Yes</v>
@@ -13755,7 +13755,7 @@
         <v>Kura</v>
       </c>
       <c r="B382" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C382" t="str">
         <v>Yes</v>
@@ -13790,7 +13790,7 @@
         <v>Kush Kush</v>
       </c>
       <c r="B383" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C383" t="str">
         <v>Yes</v>
@@ -13825,7 +13825,7 @@
         <v>Kyle George</v>
       </c>
       <c r="B384" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C384" t="str">
         <v>Yes</v>
@@ -13860,7 +13860,7 @@
         <v>Ladaniva</v>
       </c>
       <c r="B385" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C385" t="str">
         <v>Yes</v>
@@ -13895,7 +13895,7 @@
         <v>Lara Fabian</v>
       </c>
       <c r="B386" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C386" t="str">
         <v>Yes</v>
@@ -13930,7 +13930,7 @@
         <v>Lazza</v>
       </c>
       <c r="B387" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C387" t="str">
         <v>Yes</v>
@@ -13965,7 +13965,7 @@
         <v>Leman</v>
       </c>
       <c r="B388" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C388" t="str">
         <v>Yes</v>
@@ -14000,7 +14000,7 @@
         <v>Léon</v>
       </c>
       <c r="B389" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C389" t="str">
         <v>Yes</v>
@@ -14035,7 +14035,7 @@
         <v>Leony</v>
       </c>
       <c r="B390" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C390" t="str">
         <v>Yes</v>
@@ -14070,7 +14070,7 @@
         <v>Liber</v>
       </c>
       <c r="B391" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C391" t="str">
         <v>Yes</v>
@@ -14105,7 +14105,7 @@
         <v>Liis Lemsalu</v>
       </c>
       <c r="B392" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C392" t="str">
         <v>Yes</v>
@@ -14140,7 +14140,7 @@
         <v>Linda Elys</v>
       </c>
       <c r="B393" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C393" t="str">
         <v>Yes</v>
@@ -14175,7 +14175,7 @@
         <v>Little Big</v>
       </c>
       <c r="B394" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C394" t="str">
         <v>Yes</v>
@@ -14210,7 +14210,7 @@
         <v>Little Sis Nora</v>
       </c>
       <c r="B395" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C395" t="str">
         <v>Yes</v>
@@ -14245,7 +14245,7 @@
         <v>Liviu Teodorescu</v>
       </c>
       <c r="B396" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C396" t="str">
         <v>Yes</v>
@@ -14280,7 +14280,7 @@
         <v>lllira</v>
       </c>
       <c r="B397" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C397" t="str">
         <v>Yes</v>
@@ -14315,7 +14315,7 @@
         <v>LOBODA</v>
       </c>
       <c r="B398" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C398" t="str">
         <v>Yes</v>
@@ -14350,7 +14350,7 @@
         <v>Lola Marsh</v>
       </c>
       <c r="B399" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C399" t="str">
         <v>Yes</v>
@@ -14385,7 +14385,7 @@
         <v>LORENS</v>
       </c>
       <c r="B400" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C400" t="str">
         <v>Yes</v>
@@ -14420,7 +14420,7 @@
         <v>Lost Frequencies</v>
       </c>
       <c r="B401" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C401" t="str">
         <v>Yes</v>
@@ -14455,7 +14455,7 @@
         <v>Louane</v>
       </c>
       <c r="B402" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C402" t="str">
         <v>Yes</v>
@@ -14490,7 +14490,7 @@
         <v>Lozano</v>
       </c>
       <c r="B403" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C403" t="str">
         <v>Yes</v>
@@ -14525,7 +14525,7 @@
         <v>LP</v>
       </c>
       <c r="B404" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C404" t="str">
         <v>Yes</v>
@@ -14560,7 +14560,7 @@
         <v>Luina</v>
       </c>
       <c r="B405" t="str">
-        <v>Kazakhstan</v>
+        <v>Kazakhstan 🇰🇿</v>
       </c>
       <c r="C405" t="str">
         <v>Yes</v>
@@ -14595,7 +14595,7 @@
         <v>Luís Fonsi</v>
       </c>
       <c r="B406" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C406" t="str">
         <v>Yes</v>
@@ -14630,7 +14630,7 @@
         <v>Luís Trigacheiro</v>
       </c>
       <c r="B407" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C407" t="str">
         <v>Yes</v>
@@ -14665,7 +14665,7 @@
         <v>Luka</v>
       </c>
       <c r="B408" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C408" t="str">
         <v>Yes</v>
@@ -14700,7 +14700,7 @@
         <v>Luka Nizetic</v>
       </c>
       <c r="B409" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C409" t="str">
         <v>Yes</v>
@@ -14735,7 +14735,7 @@
         <v>Luna</v>
       </c>
       <c r="B410" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C410" t="str">
         <v>Yes</v>
@@ -14770,7 +14770,7 @@
         <v>Lyra</v>
       </c>
       <c r="B411" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C411" t="str">
         <v>Yes</v>
@@ -14805,7 +14805,7 @@
         <v>M-22</v>
       </c>
       <c r="B412" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C412" t="str">
         <v>Yes</v>
@@ -14840,7 +14840,7 @@
         <v>Maan</v>
       </c>
       <c r="B413" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C413" t="str">
         <v>Yes</v>
@@ -14875,7 +14875,7 @@
         <v>Mabel Matiz</v>
       </c>
       <c r="B414" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C414" t="str">
         <v>Yes</v>
@@ -14910,7 +14910,7 @@
         <v>Madame</v>
       </c>
       <c r="B415" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C415" t="str">
         <v>Yes</v>
@@ -14945,7 +14945,7 @@
         <v>MADARA</v>
       </c>
       <c r="B416" t="str">
-        <v>Latvia</v>
+        <v>Latvia 🇱🇻</v>
       </c>
       <c r="C416" t="str">
         <v>Yes</v>
@@ -14980,7 +14980,7 @@
         <v>Maëlle</v>
       </c>
       <c r="B417" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C417" t="str">
         <v>Yes</v>
@@ -15015,7 +15015,7 @@
         <v>Magnus Karlsson's Free Fall</v>
       </c>
       <c r="B418" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C418" t="str">
         <v>Yes</v>
@@ -15050,7 +15050,7 @@
         <v>Mahdi</v>
       </c>
       <c r="B419" t="str">
-        <v>Montenegro</v>
+        <v>Montenegro 🇲🇪</v>
       </c>
       <c r="C419" t="str">
         <v>Yes</v>
@@ -15085,7 +15085,7 @@
         <v>Malte Ebert</v>
       </c>
       <c r="B420" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C420" t="str">
         <v>Yes</v>
@@ -15120,7 +15120,7 @@
         <v>Malú</v>
       </c>
       <c r="B421" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C421" t="str">
         <v>Yes</v>
@@ -15155,7 +15155,7 @@
         <v>Måneskin</v>
       </c>
       <c r="B422" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C422" t="str">
         <v>Yes</v>
@@ -15190,7 +15190,7 @@
         <v>Manizha</v>
       </c>
       <c r="B423" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C423" t="str">
         <v>Yes</v>
@@ -15225,7 +15225,7 @@
         <v>Mans Zelmerlöw</v>
       </c>
       <c r="B424" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C424" t="str">
         <v>Yes</v>
@@ -15260,7 +15260,7 @@
         <v>Manuel Carrasco</v>
       </c>
       <c r="B425" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C425" t="str">
         <v>Yes</v>
@@ -15295,7 +15295,7 @@
         <v>MARA</v>
       </c>
       <c r="B426" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C426" t="str">
         <v>Yes</v>
@@ -15330,7 +15330,7 @@
         <v>Mara Sattei</v>
       </c>
       <c r="B427" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C427" t="str">
         <v>Yes</v>
@@ -15365,7 +15365,7 @@
         <v>MARCELA</v>
       </c>
       <c r="B428" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C428" t="str">
         <v>Yes</v>
@@ -15400,7 +15400,7 @@
         <v>Marghe</v>
       </c>
       <c r="B429" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C429" t="str">
         <v>Yes</v>
@@ -15435,7 +15435,7 @@
         <v>Maria Mena</v>
       </c>
       <c r="B430" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C430" t="str">
         <v>Yes</v>
@@ -15470,7 +15470,7 @@
         <v>Marianna Mira</v>
       </c>
       <c r="B431" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C431" t="str">
         <v>Yes</v>
@@ -15505,7 +15505,7 @@
         <v>Marija Šerifović</v>
       </c>
       <c r="B432" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C432" t="str">
         <v>Yes</v>
@@ -15540,7 +15540,7 @@
         <v>Marina Kaye</v>
       </c>
       <c r="B433" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C433" t="str">
         <v>Yes</v>
@@ -15575,7 +15575,7 @@
         <v>Marina Marx</v>
       </c>
       <c r="B434" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C434" t="str">
         <v>Yes</v>
@@ -15610,7 +15610,7 @@
         <v>Mario 5reković</v>
       </c>
       <c r="B435" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C435" t="str">
         <v>Yes</v>
@@ -15645,7 +15645,7 @@
         <v>Mariza</v>
       </c>
       <c r="B436" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C436" t="str">
         <v>Yes</v>
@@ -15680,7 +15680,7 @@
         <v>Markus Riva</v>
       </c>
       <c r="B437" t="str">
-        <v>Latvia</v>
+        <v>Latvia 🇱🇻</v>
       </c>
       <c r="C437" t="str">
         <v>Yes</v>
@@ -15715,7 +15715,7 @@
         <v>MARUV</v>
       </c>
       <c r="B438" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C438" t="str">
         <v>Yes</v>
@@ -15750,7 +15750,7 @@
         <v>Matija Cvek</v>
       </c>
       <c r="B439" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C439" t="str">
         <v>Yes</v>
@@ -15785,7 +15785,7 @@
         <v>Matteo Romano</v>
       </c>
       <c r="B440" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C440" t="str">
         <v>Yes</v>
@@ -15820,7 +15820,7 @@
         <v>Matti ja Teppo</v>
       </c>
       <c r="B441" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C441" t="str">
         <v>Yes</v>
@@ -15855,7 +15855,7 @@
         <v>Max Landry</v>
       </c>
       <c r="B442" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C442" t="str">
         <v>Yes</v>
@@ -15890,7 +15890,7 @@
         <v>Maxim Fadeev</v>
       </c>
       <c r="B443" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C443" t="str">
         <v>Yes</v>
@@ -15925,7 +15925,7 @@
         <v>Maxine</v>
       </c>
       <c r="B444" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C444" t="str">
         <v>Yes</v>
@@ -15960,7 +15960,7 @@
         <v>Mayssa Karaa</v>
       </c>
       <c r="B445" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C445" t="str">
         <v>Yes</v>
@@ -15995,7 +15995,7 @@
         <v>Mc Daddy</v>
       </c>
       <c r="B446" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C446" t="str">
         <v>Yes</v>
@@ -16030,7 +16030,7 @@
         <v>Meduza</v>
       </c>
       <c r="B447" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C447" t="str">
         <v>Yes</v>
@@ -16065,7 +16065,7 @@
         <v>Mehdi Bahmad</v>
       </c>
       <c r="B448" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C448" t="str">
         <v>Yes</v>
@@ -16100,7 +16100,7 @@
         <v>Melina Makri</v>
       </c>
       <c r="B449" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C449" t="str">
         <v>Yes</v>
@@ -16135,7 +16135,7 @@
         <v>Melody</v>
       </c>
       <c r="B450" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C450" t="str">
         <v>Yes</v>
@@ -16170,7 +16170,7 @@
         <v>Mennel</v>
       </c>
       <c r="B451" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C451" t="str">
         <v>Yes</v>
@@ -16205,7 +16205,7 @@
         <v>Michael Leonardi</v>
       </c>
       <c r="B452" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C452" t="str">
         <v>Yes</v>
@@ -16240,7 +16240,7 @@
         <v>Michael Patrick Kelly</v>
       </c>
       <c r="B453" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C453" t="str">
         <v>Yes</v>
@@ -16275,7 +16275,7 @@
         <v>Michael Schulte</v>
       </c>
       <c r="B454" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C454" t="str">
         <v>Yes</v>
@@ -16310,7 +16310,7 @@
         <v>Michaela Marinova</v>
       </c>
       <c r="B455" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C455" t="str">
         <v>Yes</v>
@@ -16345,7 +16345,7 @@
         <v>Michela</v>
       </c>
       <c r="B456" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C456" t="str">
         <v>Yes</v>
@@ -16380,7 +16380,7 @@
         <v>Michele Bravi</v>
       </c>
       <c r="B457" t="str">
-        <v>San Marino</v>
+        <v>San Marino 🇸🇲</v>
       </c>
       <c r="C457" t="str">
         <v>Yes</v>
@@ -16415,7 +16415,7 @@
         <v>Michele Morrone</v>
       </c>
       <c r="B458" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C458" t="str">
         <v>Yes</v>
@@ -16450,7 +16450,7 @@
         <v>MIKA</v>
       </c>
       <c r="B459" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C459" t="str">
         <v>Yes</v>
@@ -16485,7 +16485,7 @@
         <v>Milow</v>
       </c>
       <c r="B460" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C460" t="str">
         <v>Yes</v>
@@ -16520,7 +16520,7 @@
         <v>Mimoza</v>
       </c>
       <c r="B461" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C461" t="str">
         <v>Yes</v>
@@ -16555,7 +16555,7 @@
         <v>Minelli</v>
       </c>
       <c r="B462" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C462" t="str">
         <v>Yes</v>
@@ -16590,7 +16590,7 @@
         <v>MIRA</v>
       </c>
       <c r="B463" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C463" t="str">
         <v>Yes</v>
@@ -16625,7 +16625,7 @@
         <v>Mirela</v>
       </c>
       <c r="B464" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C464" t="str">
         <v>Yes</v>
@@ -16660,7 +16660,7 @@
         <v>Miriam Rodríguez</v>
       </c>
       <c r="B465" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C465" t="str">
         <v>Yes</v>
@@ -16695,7 +16695,7 @@
         <v>Modà</v>
       </c>
       <c r="B466" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C466" t="str">
         <v>Yes</v>
@@ -16730,7 +16730,7 @@
         <v>MOLDANAZAR</v>
       </c>
       <c r="B467" t="str">
-        <v>Kazakhstan</v>
+        <v>Kazakhstan 🇰🇿</v>
       </c>
       <c r="C467" t="str">
         <v>Yes</v>
@@ -16765,7 +16765,7 @@
         <v>Mon Laferte</v>
       </c>
       <c r="B468" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C468" t="str">
         <v>Yes</v>
@@ -16800,7 +16800,7 @@
         <v>MONATIK</v>
       </c>
       <c r="B469" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C469" t="str">
         <v>Yes</v>
@@ -16835,7 +16835,7 @@
         <v>Morat</v>
       </c>
       <c r="B470" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C470" t="str">
         <v>Yes</v>
@@ -16870,7 +16870,7 @@
         <v>Mørland</v>
       </c>
       <c r="B471" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C471" t="str">
         <v>Yes</v>
@@ -16905,7 +16905,7 @@
         <v>Moyka</v>
       </c>
       <c r="B472" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C472" t="str">
         <v>Yes</v>
@@ -16940,7 +16940,7 @@
         <v>MTEAM</v>
       </c>
       <c r="B473" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C473" t="str">
         <v>Yes</v>
@@ -16975,7 +16975,7 @@
         <v>Myle</v>
       </c>
       <c r="B474" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C474" t="str">
         <v>Yes</v>
@@ -17010,7 +17010,7 @@
         <v>Myriam Fares</v>
       </c>
       <c r="B475" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C475" t="str">
         <v>Yes</v>
@@ -17045,7 +17045,7 @@
         <v>Naheli</v>
       </c>
       <c r="B476" t="str">
-        <v>Egypt</v>
+        <v>Egypt 🇪🇬</v>
       </c>
       <c r="C476" t="str">
         <v>Yes</v>
@@ -17080,7 +17080,7 @@
         <v>Naiva</v>
       </c>
       <c r="B477" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C477" t="str">
         <v>Yes</v>
@@ -17115,7 +17115,7 @@
         <v>Najwa Karam</v>
       </c>
       <c r="B478" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C478" t="str">
         <v>Yes</v>
@@ -17150,7 +17150,7 @@
         <v>Nanna Bryndís Hilmarsdóttir</v>
       </c>
       <c r="B479" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C479" t="str">
         <v>Yes</v>
@@ -17185,7 +17185,7 @@
         <v>Narkis</v>
       </c>
       <c r="B480" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C480" t="str">
         <v>Yes</v>
@@ -17220,7 +17220,7 @@
         <v>Nassi</v>
       </c>
       <c r="B481" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C481" t="str">
         <v>Yes</v>
@@ -17255,7 +17255,7 @@
         <v>Natalia</v>
       </c>
       <c r="B482" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C482" t="str">
         <v>Yes</v>
@@ -17290,7 +17290,7 @@
         <v>Natalia Gordienko</v>
       </c>
       <c r="B483" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C483" t="str">
         <v>Yes</v>
@@ -17325,7 +17325,7 @@
         <v>Natalie Imbruglia</v>
       </c>
       <c r="B484" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C484" t="str">
         <v>Yes</v>
@@ -17360,7 +17360,7 @@
         <v>Nathalie Saba</v>
       </c>
       <c r="B485" t="str">
-        <v>Egypt</v>
+        <v>Egypt 🇪🇬</v>
       </c>
       <c r="C485" t="str">
         <v>Yes</v>
@@ -17395,7 +17395,7 @@
         <v>Nathan Trent</v>
       </c>
       <c r="B486" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C486" t="str">
         <v>Yes</v>
@@ -17430,7 +17430,7 @@
         <v>Nela Pocisková</v>
       </c>
       <c r="B487" t="str">
-        <v>Slovakia</v>
+        <v>Slovakia 🇸🇰</v>
       </c>
       <c r="C487" t="str">
         <v>Yes</v>
@@ -17465,7 +17465,7 @@
         <v>Nelli Matula</v>
       </c>
       <c r="B488" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C488" t="str">
         <v>Yes</v>
@@ -17500,7 +17500,7 @@
         <v>NEMAZALÁNY</v>
       </c>
       <c r="B489" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C489" t="str">
         <v>Yes</v>
@@ -17535,7 +17535,7 @@
         <v>Nermin Puskar</v>
       </c>
       <c r="B490" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Bosnia and Herzegovina 🇧🇦</v>
       </c>
       <c r="C490" t="str">
         <v>Yes</v>
@@ -17570,7 +17570,7 @@
         <v>Niall Horan</v>
       </c>
       <c r="B491" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C491" t="str">
         <v>Yes</v>
@@ -17605,7 +17605,7 @@
         <v>Nicat Rehimov</v>
       </c>
       <c r="B492" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C492" t="str">
         <v>Yes</v>
@@ -17640,7 +17640,7 @@
         <v>Nicoleta Nuca</v>
       </c>
       <c r="B493" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C493" t="str">
         <v>Yes</v>
@@ -17675,7 +17675,7 @@
         <v>Nikiforos</v>
       </c>
       <c r="B494" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C494" t="str">
         <v>Yes</v>
@@ -17710,7 +17710,7 @@
         <v>Nikos Oikonomopoulos</v>
       </c>
       <c r="B495" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C495" t="str">
         <v>Yes</v>
@@ -17745,7 +17745,7 @@
         <v>Nil Moliner</v>
       </c>
       <c r="B496" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C496" t="str">
         <v>Yes</v>
@@ -17780,7 +17780,7 @@
         <v>Nina</v>
       </c>
       <c r="B497" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C497" t="str">
         <v>Yes</v>
@@ -17815,7 +17815,7 @@
         <v>Nina Nesbitt</v>
       </c>
       <c r="B498" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C498" t="str">
         <v>Yes</v>
@@ -17850,7 +17850,7 @@
         <v>Ninho</v>
       </c>
       <c r="B499" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C499" t="str">
         <v>Yes</v>
@@ -17885,7 +17885,7 @@
         <v>NINO Xypolitas</v>
       </c>
       <c r="B500" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C500" t="str">
         <v>Yes</v>
@@ -17920,7 +17920,7 @@
         <v>Noble</v>
       </c>
       <c r="B501" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C501" t="str">
         <v>Yes</v>
@@ -17955,7 +17955,7 @@
         <v>Noora Louhimo</v>
       </c>
       <c r="B502" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C502" t="str">
         <v>Yes</v>
@@ -17990,7 +17990,7 @@
         <v>NorthKid</v>
       </c>
       <c r="B503" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C503" t="str">
         <v>Yes</v>
@@ -18025,7 +18025,7 @@
         <v>NOX</v>
       </c>
       <c r="B504" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C504" t="str">
         <v>Yes</v>
@@ -18060,7 +18060,7 @@
         <v>Nune Yesayan</v>
       </c>
       <c r="B505" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C505" t="str">
         <v>Yes</v>
@@ -18095,7 +18095,7 @@
         <v>Nutsa Buzaladze</v>
       </c>
       <c r="B506" t="str">
-        <v>Georgia</v>
+        <v>Georgia 🇬🇪</v>
       </c>
       <c r="C506" t="str">
         <v>Yes</v>
@@ -18130,7 +18130,7 @@
         <v>Ofelija</v>
       </c>
       <c r="B507" t="str">
-        <v>Slovenia</v>
+        <v>Slovenia 🇸🇮</v>
       </c>
       <c r="C507" t="str">
         <v>Yes</v>
@@ -18165,7 +18165,7 @@
         <v>Ofenbach</v>
       </c>
       <c r="B508" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C508" t="str">
         <v>Yes</v>
@@ -18200,7 +18200,7 @@
         <v>Oksana Kozun</v>
       </c>
       <c r="B509" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C509" t="str">
         <v>Yes</v>
@@ -18235,7 +18235,7 @@
         <v>Ólafur Arnalds</v>
       </c>
       <c r="B510" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C510" t="str">
         <v>Yes</v>
@@ -18270,7 +18270,7 @@
         <v>Oliver Tree</v>
       </c>
       <c r="B511" t="str">
-        <v>Russia</v>
+        <v>Russia 🇷🇺</v>
       </c>
       <c r="C511" t="str">
         <v>Yes</v>
@@ -18305,7 +18305,7 @@
         <v>Olivia Dorato</v>
       </c>
       <c r="B512" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C512" t="str">
         <v>Yes</v>
@@ -18340,7 +18340,7 @@
         <v>Oonagh</v>
       </c>
       <c r="B513" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C513" t="str">
         <v>Yes</v>
@@ -18375,7 +18375,7 @@
         <v>Oques Grasses</v>
       </c>
       <c r="B514" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C514" t="str">
         <v>Yes</v>
@@ -18410,7 +18410,7 @@
         <v>Orr Amrami Brockman</v>
       </c>
       <c r="B515" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C515" t="str">
         <v>Yes</v>
@@ -18445,7 +18445,7 @@
         <v>Oscar Anton</v>
       </c>
       <c r="B516" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C516" t="str">
         <v>Yes</v>
@@ -18480,7 +18480,7 @@
         <v>Oska</v>
       </c>
       <c r="B517" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C517" t="str">
         <v>Yes</v>
@@ -18515,7 +18515,7 @@
         <v>OT</v>
       </c>
       <c r="B518" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C518" t="str">
         <v>Yes</v>
@@ -18550,7 +18550,7 @@
         <v>Ott Leppland</v>
       </c>
       <c r="B519" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C519" t="str">
         <v>Yes</v>
@@ -18585,7 +18585,7 @@
         <v>Owlle</v>
       </c>
       <c r="B520" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C520" t="str">
         <v>Yes</v>
@@ -18620,7 +18620,7 @@
         <v>Paenda</v>
       </c>
       <c r="B521" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C521" t="str">
         <v>Yes</v>
@@ -18655,7 +18655,7 @@
         <v>Páll Óskar</v>
       </c>
       <c r="B522" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C522" t="str">
         <v>Yes</v>
@@ -18690,7 +18690,7 @@
         <v>Paloma Faith</v>
       </c>
       <c r="B523" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C523" t="str">
         <v>Yes</v>
@@ -18725,7 +18725,7 @@
         <v>Paola</v>
       </c>
       <c r="B524" t="str">
-        <v>Italy</v>
+        <v>Italy 🇮🇹</v>
       </c>
       <c r="C524" t="str">
         <v>Yes</v>
@@ -18760,7 +18760,7 @@
         <v>Papyllon</v>
       </c>
       <c r="B525" t="str">
-        <v>Slovakia</v>
+        <v>Slovakia 🇸🇰</v>
       </c>
       <c r="C525" t="str">
         <v>Yes</v>
@@ -18795,7 +18795,7 @@
         <v>Parade of Planets</v>
       </c>
       <c r="B526" t="str">
-        <v>Belarus</v>
+        <v>Belarus 🇧🇾</v>
       </c>
       <c r="C526" t="str">
         <v>Yes</v>
@@ -18830,7 +18830,7 @@
         <v>Pavel</v>
       </c>
       <c r="B527" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C527" t="str">
         <v>Yes</v>
@@ -18865,7 +18865,7 @@
         <v>Pedro Mafama</v>
       </c>
       <c r="B528" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C528" t="str">
         <v>Yes</v>
@@ -18900,7 +18900,7 @@
         <v>Pegasus</v>
       </c>
       <c r="B529" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C529" t="str">
         <v>Yes</v>
@@ -18935,7 +18935,7 @@
         <v>Perdenin Ardindakiler</v>
       </c>
       <c r="B530" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C530" t="str">
         <v>Yes</v>
@@ -18970,7 +18970,7 @@
         <v>Petra Marklund</v>
       </c>
       <c r="B531" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C531" t="str">
         <v>Yes</v>
@@ -19005,7 +19005,7 @@
         <v>Philip Kirkorov</v>
       </c>
       <c r="B532" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C532" t="str">
         <v>Yes</v>
@@ -19040,7 +19040,7 @@
         <v>Philippine</v>
       </c>
       <c r="B533" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C533" t="str">
         <v>Yes</v>
@@ -19075,7 +19075,7 @@
         <v>Picture This</v>
       </c>
       <c r="B534" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C534" t="str">
         <v>Yes</v>
@@ -19110,7 +19110,7 @@
         <v>PIERRE DE MAERE</v>
       </c>
       <c r="B535" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C535" t="str">
         <v>Yes</v>
@@ -19145,7 +19145,7 @@
         <v>Portion Boys</v>
       </c>
       <c r="B536" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C536" t="str">
         <v>Yes</v>
@@ -19180,7 +19180,7 @@
         <v>Raluka</v>
       </c>
       <c r="B537" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C537" t="str">
         <v>Yes</v>
@@ -19215,7 +19215,7 @@
         <v>Ran Danker</v>
       </c>
       <c r="B538" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C538" t="str">
         <v>Yes</v>
@@ -19250,7 +19250,7 @@
         <v>Rasmus Seebach</v>
       </c>
       <c r="B539" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C539" t="str">
         <v>Yes</v>
@@ -19285,7 +19285,7 @@
         <v>Raviv Kaner</v>
       </c>
       <c r="B540" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C540" t="str">
         <v>Yes</v>
@@ -19320,7 +19320,7 @@
         <v>RAYE</v>
       </c>
       <c r="B541" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C541" t="str">
         <v>Yes</v>
@@ -19355,7 +19355,7 @@
         <v>Raylee</v>
       </c>
       <c r="B542" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C542" t="str">
         <v>Yes</v>
@@ -19390,7 +19390,7 @@
         <v>Regard</v>
       </c>
       <c r="B543" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C543" t="str">
         <v>Yes</v>
@@ -19425,7 +19425,7 @@
         <v>Remo Forrer</v>
       </c>
       <c r="B544" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C544" t="str">
         <v>Yes</v>
@@ -19460,7 +19460,7 @@
         <v>Reyko</v>
       </c>
       <c r="B545" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C545" t="str">
         <v>Yes</v>
@@ -19495,7 +19495,7 @@
         <v>Ricki-Lee</v>
       </c>
       <c r="B546" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C546" t="str">
         <v>Yes</v>
@@ -19530,7 +19530,7 @@
         <v>Rina Sawayama</v>
       </c>
       <c r="B547" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C547" t="str">
         <v>Yes</v>
@@ -19565,7 +19565,7 @@
         <v>Rita Guerra</v>
       </c>
       <c r="B548" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C548" t="str">
         <v>Yes</v>
@@ -19600,7 +19600,7 @@
         <v>Rita Ora</v>
       </c>
       <c r="B549" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C549" t="str">
         <v>Yes</v>
@@ -19635,7 +19635,7 @@
         <v>Rita Wilson</v>
       </c>
       <c r="B550" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C550" t="str">
         <v>Yes</v>
@@ -19670,7 +19670,7 @@
         <v>Robin Packalen</v>
       </c>
       <c r="B551" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C551" t="str">
         <v>Yes</v>
@@ -19705,7 +19705,7 @@
         <v>ROCKET</v>
       </c>
       <c r="B552" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C552" t="str">
         <v>Yes</v>
@@ -19740,7 +19740,7 @@
         <v>Ronan Keating</v>
       </c>
       <c r="B553" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C553" t="str">
         <v>Yes</v>
@@ -19775,7 +19775,7 @@
         <v>Rondé</v>
       </c>
       <c r="B554" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C554" t="str">
         <v>Yes</v>
@@ -19810,7 +19810,7 @@
         <v>Roosevelt</v>
       </c>
       <c r="B555" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C555" t="str">
         <v>Yes</v>
@@ -19845,7 +19845,7 @@
         <v>Rori</v>
       </c>
       <c r="B556" t="str">
-        <v>Belgium</v>
+        <v>Belgium 🇧🇪</v>
       </c>
       <c r="C556" t="str">
         <v>Yes</v>
@@ -19880,7 +19880,7 @@
         <v>Rosalía</v>
       </c>
       <c r="B557" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C557" t="str">
         <v>Yes</v>
@@ -19915,7 +19915,7 @@
         <v>Roulez Jeunesse</v>
       </c>
       <c r="B558" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C558" t="str">
         <v>Yes</v>
@@ -19950,7 +19950,7 @@
         <v>Röya</v>
       </c>
       <c r="B559" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C559" t="str">
         <v>Yes</v>
@@ -19985,7 +19985,7 @@
         <v>Royane</v>
       </c>
       <c r="B560" t="str">
-        <v>Morocco</v>
+        <v>Morocco 🇲🇦</v>
       </c>
       <c r="C560" t="str">
         <v>Yes</v>
@@ -20020,7 +20020,7 @@
         <v>Ruben</v>
       </c>
       <c r="B561" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C561" t="str">
         <v>Yes</v>
@@ -20055,7 +20055,7 @@
         <v>Rudimental</v>
       </c>
       <c r="B562" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C562" t="str">
         <v>Yes</v>
@@ -20090,7 +20090,7 @@
         <v>Ruma</v>
       </c>
       <c r="B563" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C563" t="str">
         <v>Yes</v>
@@ -20125,7 +20125,7 @@
         <v>Rúsza Magdolna</v>
       </c>
       <c r="B564" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C564" t="str">
         <v>Yes</v>
@@ -20160,7 +20160,7 @@
         <v>Ruth Anne</v>
       </c>
       <c r="B565" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C565" t="str">
         <v>Yes</v>
@@ -20195,7 +20195,7 @@
         <v>Sam Fischer</v>
       </c>
       <c r="B566" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C566" t="str">
         <v>Yes</v>
@@ -20230,7 +20230,7 @@
         <v>Samantha Jade</v>
       </c>
       <c r="B567" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C567" t="str">
         <v>Yes</v>
@@ -20265,7 +20265,7 @@
         <v>Samantha Tina</v>
       </c>
       <c r="B568" t="str">
-        <v>Latvia</v>
+        <v>Latvia 🇱🇻</v>
       </c>
       <c r="C568" t="str">
         <v>Yes</v>
@@ -20300,7 +20300,7 @@
         <v>Samra</v>
       </c>
       <c r="B569" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C569" t="str">
         <v>Yes</v>
@@ -20335,7 +20335,7 @@
         <v>Sanah</v>
       </c>
       <c r="B570" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C570" t="str">
         <v>Yes</v>
@@ -20370,7 +20370,7 @@
         <v>SARA'H</v>
       </c>
       <c r="B571" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C571" t="str">
         <v>Yes</v>
@@ -20405,7 +20405,7 @@
         <v>Saro Gevorgyan</v>
       </c>
       <c r="B572" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C572" t="str">
         <v>Yes</v>
@@ -20440,7 +20440,7 @@
         <v>Sasha Lopez</v>
       </c>
       <c r="B573" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C573" t="str">
         <v>Yes</v>
@@ -20475,7 +20475,7 @@
         <v>Sebastián Yatra</v>
       </c>
       <c r="B574" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C574" t="str">
         <v>Yes</v>
@@ -20510,7 +20510,7 @@
         <v>Seeb</v>
       </c>
       <c r="B575" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C575" t="str">
         <v>Yes</v>
@@ -20545,7 +20545,7 @@
         <v>Seka Alesksic</v>
       </c>
       <c r="B576" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Bosnia and Herzegovina 🇧🇦</v>
       </c>
       <c r="C576" t="str">
         <v>Yes</v>
@@ -20580,7 +20580,7 @@
         <v>Selin</v>
       </c>
       <c r="B577" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C577" t="str">
         <v>Yes</v>
@@ -20615,7 +20615,7 @@
         <v>SERA</v>
       </c>
       <c r="B578" t="str">
-        <v>Netherlands</v>
+        <v>Netherlands 🇳🇱</v>
       </c>
       <c r="C578" t="str">
         <v>Yes</v>
@@ -20650,7 +20650,7 @@
         <v>Sergej</v>
       </c>
       <c r="B579" t="str">
-        <v>Montenegro</v>
+        <v>Montenegro 🇲🇪</v>
       </c>
       <c r="C579" t="str">
         <v>Yes</v>
@@ -20685,7 +20685,7 @@
         <v>Sevda Ələkbərzadə</v>
       </c>
       <c r="B580" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C580" t="str">
         <v>Yes</v>
@@ -20720,7 +20720,7 @@
         <v>Shadia Mansour</v>
       </c>
       <c r="B581" t="str">
-        <v>Jordan</v>
+        <v>Jordan 🇯🇴</v>
       </c>
       <c r="C581" t="str">
         <v>Yes</v>
@@ -20755,7 +20755,7 @@
         <v>Shaun Farrugia</v>
       </c>
       <c r="B582" t="str">
-        <v>Malta</v>
+        <v>Malta 🇲🇹</v>
       </c>
       <c r="C582" t="str">
         <v>Yes</v>
@@ -20790,7 +20790,7 @@
         <v>Shay Gabso</v>
       </c>
       <c r="B583" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C583" t="str">
         <v>Yes</v>
@@ -20825,7 +20825,7 @@
         <v>Shygirl</v>
       </c>
       <c r="B584" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C584" t="str">
         <v>Yes</v>
@@ -20860,7 +20860,7 @@
         <v>Sigala</v>
       </c>
       <c r="B585" t="str">
-        <v>Albania</v>
+        <v>Albania 🇦🇱</v>
       </c>
       <c r="C585" t="str">
         <v>Yes</v>
@@ -20895,7 +20895,7 @@
         <v>Silbermond</v>
       </c>
       <c r="B586" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C586" t="str">
         <v>Yes</v>
@@ -20930,7 +20930,7 @@
         <v>Silente</v>
       </c>
       <c r="B587" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C587" t="str">
         <v>Yes</v>
@@ -20965,7 +20965,7 @@
         <v>Sirusho</v>
       </c>
       <c r="B588" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C588" t="str">
         <v>Yes</v>
@@ -21000,7 +21000,7 @@
         <v>Sisters on wire</v>
       </c>
       <c r="B589" t="str">
-        <v>Lithuania</v>
+        <v>Lithuania 🇱🇹</v>
       </c>
       <c r="C589" t="str">
         <v>Yes</v>
@@ -21035,7 +21035,7 @@
         <v>Skoro Bitorajac</v>
       </c>
       <c r="B590" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C590" t="str">
         <v>Yes</v>
@@ -21070,7 +21070,7 @@
         <v>Srbuk</v>
       </c>
       <c r="B591" t="str">
-        <v>Armenia</v>
+        <v>Armenia 🇦🇲</v>
       </c>
       <c r="C591" t="str">
         <v>Yes</v>
@@ -21105,7 +21105,7 @@
         <v>St Graal</v>
       </c>
       <c r="B592" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C592" t="str">
         <v>Yes</v>
@@ -21140,7 +21140,7 @@
         <v>Static</v>
       </c>
       <c r="B593" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C593" t="str">
         <v>Yes</v>
@@ -21175,7 +21175,7 @@
         <v>Stavento</v>
       </c>
       <c r="B594" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C594" t="str">
         <v>Yes</v>
@@ -21210,7 +21210,7 @@
         <v>STEFAN</v>
       </c>
       <c r="B595" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C595" t="str">
         <v>Yes</v>
@@ -21245,7 +21245,7 @@
         <v>Stefania Svavars</v>
       </c>
       <c r="B596" t="str">
-        <v>Iceland</v>
+        <v>Iceland 🇮🇸</v>
       </c>
       <c r="C596" t="str">
         <v>Yes</v>
@@ -21280,7 +21280,7 @@
         <v>Stephane Legar</v>
       </c>
       <c r="B597" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C597" t="str">
         <v>Yes</v>
@@ -21315,7 +21315,7 @@
         <v>Stress</v>
       </c>
       <c r="B598" t="str">
-        <v>Switzerland</v>
+        <v>Switzerland 🇨🇭</v>
       </c>
       <c r="C598" t="str">
         <v>Yes</v>
@@ -21350,7 +21350,7 @@
         <v>Stromae</v>
       </c>
       <c r="B599" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C599" t="str">
         <v>Yes</v>
@@ -21385,7 +21385,7 @@
         <v>Sweet California</v>
       </c>
       <c r="B600" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C600" t="str">
         <v>Yes</v>
@@ -21420,7 +21420,7 @@
         <v>Sylwia Grzeszczak</v>
       </c>
       <c r="B601" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C601" t="str">
         <v>Yes</v>
@@ -21455,7 +21455,7 @@
         <v>SYRO</v>
       </c>
       <c r="B602" t="str">
-        <v>Portugal</v>
+        <v>Portugal 🇵🇹</v>
       </c>
       <c r="C602" t="str">
         <v>Yes</v>
@@ -21490,7 +21490,7 @@
         <v>Szakács Gergő</v>
       </c>
       <c r="B603" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C603" t="str">
         <v>Yes</v>
@@ -21525,7 +21525,7 @@
         <v>Tal</v>
       </c>
       <c r="B604" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C604" t="str">
         <v>Yes</v>
@@ -21560,7 +21560,7 @@
         <v>Tamada</v>
       </c>
       <c r="B605" t="str">
-        <v>Georgia</v>
+        <v>Georgia 🇬🇪</v>
       </c>
       <c r="C605" t="str">
         <v>Yes</v>
@@ -21595,7 +21595,7 @@
         <v>Tamara Kutidze</v>
       </c>
       <c r="B606" t="str">
-        <v>Georgia</v>
+        <v>Georgia 🇬🇪</v>
       </c>
       <c r="C606" t="str">
         <v>Yes</v>
@@ -21630,7 +21630,7 @@
         <v>Tamara Todevska</v>
       </c>
       <c r="B607" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C607" t="str">
         <v>Yes</v>
@@ -21665,7 +21665,7 @@
         <v>Tanxugueiras</v>
       </c>
       <c r="B608" t="str">
-        <v>Spain</v>
+        <v>Spain 🇪🇸</v>
       </c>
       <c r="C608" t="str">
         <v>Yes</v>
@@ -21700,7 +21700,7 @@
         <v>Tape Machines</v>
       </c>
       <c r="B609" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C609" t="str">
         <v>Yes</v>
@@ -21735,7 +21735,7 @@
         <v>Tarapana Band</v>
       </c>
       <c r="B610" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C610" t="str">
         <v>Yes</v>
@@ -21770,7 +21770,7 @@
         <v>Tate McRea</v>
       </c>
       <c r="B611" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C611" t="str">
         <v>Yes</v>
@@ -21805,7 +21805,7 @@
         <v>Tautumeitas</v>
       </c>
       <c r="B612" t="str">
-        <v>Latvia</v>
+        <v>Latvia 🇱🇻</v>
       </c>
       <c r="C612" t="str">
         <v>Yes</v>
@@ -21840,7 +21840,7 @@
         <v>Tea Tairovic</v>
       </c>
       <c r="B613" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C613" t="str">
         <v>Yes</v>
@@ -21875,7 +21875,7 @@
         <v>Tereza Maskova</v>
       </c>
       <c r="B614" t="str">
-        <v>Slovakia</v>
+        <v>Slovakia 🇸🇰</v>
       </c>
       <c r="C614" t="str">
         <v>Yes</v>
@@ -21910,7 +21910,7 @@
         <v>Teya Dora</v>
       </c>
       <c r="B615" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C615" t="str">
         <v>Yes</v>
@@ -21945,7 +21945,7 @@
         <v>TGC</v>
       </c>
       <c r="B616" t="str">
-        <v>Norway</v>
+        <v>Norway 🇳🇴</v>
       </c>
       <c r="C616" t="str">
         <v>Yes</v>
@@ -21980,7 +21980,7 @@
         <v>The Blind Harpist</v>
       </c>
       <c r="B617" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C617" t="str">
         <v>Yes</v>
@@ -22015,7 +22015,7 @@
         <v>The Coronas</v>
       </c>
       <c r="B618" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C618" t="str">
         <v>Yes</v>
@@ -22050,7 +22050,7 @@
         <v>The Frajle</v>
       </c>
       <c r="B619" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C619" t="str">
         <v>Yes</v>
@@ -22085,7 +22085,7 @@
         <v>The Motans</v>
       </c>
       <c r="B620" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C620" t="str">
         <v>Yes</v>
@@ -22120,7 +22120,7 @@
         <v>The Rosé</v>
       </c>
       <c r="B621" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C621" t="str">
         <v>Yes</v>
@@ -22155,7 +22155,7 @@
         <v>The Silver Spoons</v>
       </c>
       <c r="B622" t="str">
-        <v>Czechia</v>
+        <v>Czechia 🇨🇿</v>
       </c>
       <c r="C622" t="str">
         <v>Yes</v>
@@ -22190,7 +22190,7 @@
         <v>Thoom</v>
       </c>
       <c r="B623" t="str">
-        <v>Lebanon</v>
+        <v>Lebanon 🇱🇧</v>
       </c>
       <c r="C623" t="str">
         <v>Yes</v>
@@ -22225,7 +22225,7 @@
         <v>TIBZ</v>
       </c>
       <c r="B624" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C624" t="str">
         <v>Yes</v>
@@ -22260,7 +22260,7 @@
         <v>Tiësto</v>
       </c>
       <c r="B625" t="str">
-        <v>Netherlands</v>
+        <v>Netherlands 🇳🇱</v>
       </c>
       <c r="C625" t="str">
         <v>Yes</v>
@@ -22295,7 +22295,7 @@
         <v>Tijana Bogicevic</v>
       </c>
       <c r="B626" t="str">
-        <v>Serbia</v>
+        <v>Serbia 🇷🇸</v>
       </c>
       <c r="C626" t="str">
         <v>Yes</v>
@@ -22330,7 +22330,7 @@
         <v>Tim Bendzko</v>
       </c>
       <c r="B627" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C627" t="str">
         <v>Yes</v>
@@ -22365,7 +22365,7 @@
         <v>Tim Dup</v>
       </c>
       <c r="B628" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C628" t="str">
         <v>Yes</v>
@@ -22400,7 +22400,7 @@
         <v>Titta</v>
       </c>
       <c r="B629" t="str">
-        <v>Finland</v>
+        <v>Finland 🇫🇮</v>
       </c>
       <c r="C629" t="str">
         <v>Yes</v>
@@ -22435,7 +22435,7 @@
         <v>Tom Grennan</v>
       </c>
       <c r="B630" t="str">
-        <v>United Kingdom</v>
+        <v>United Kingdom 🇬🇧</v>
       </c>
       <c r="C630" t="str">
         <v>Yes</v>
@@ -22470,7 +22470,7 @@
         <v>Tommy Cash</v>
       </c>
       <c r="B631" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C631" t="str">
         <v>Yes</v>
@@ -22505,7 +22505,7 @@
         <v>Tommy Ljungberg</v>
       </c>
       <c r="B632" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C632" t="str">
         <v>Yes</v>
@@ -22540,7 +22540,7 @@
         <v>Tones and I</v>
       </c>
       <c r="B633" t="str">
-        <v>Australia</v>
+        <v>Australia 🇦🇺</v>
       </c>
       <c r="C633" t="str">
         <v>Yes</v>
@@ -22575,7 +22575,7 @@
         <v>Top of the Pop</v>
       </c>
       <c r="B634" t="str">
-        <v>Croatia</v>
+        <v>Croatia 🇭🇷</v>
       </c>
       <c r="C634" t="str">
         <v>Yes</v>
@@ -22610,7 +22610,7 @@
         <v>Topic</v>
       </c>
       <c r="B635" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C635" t="str">
         <v>Yes</v>
@@ -22645,7 +22645,7 @@
         <v>Traffic</v>
       </c>
       <c r="B636" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C636" t="str">
         <v>Yes</v>
@@ -22680,7 +22680,7 @@
         <v>Traitors</v>
       </c>
       <c r="B637" t="str">
-        <v>Denmark</v>
+        <v>Denmark 🇩🇰</v>
       </c>
       <c r="C637" t="str">
         <v>Yes</v>
@@ -22715,7 +22715,7 @@
         <v>Tsvetelina Yaneva</v>
       </c>
       <c r="B638" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C638" t="str">
         <v>Yes</v>
@@ -22750,7 +22750,7 @@
         <v>TVORCHI</v>
       </c>
       <c r="B639" t="str">
-        <v>Ukraine</v>
+        <v>Ukraine 🇺🇦</v>
       </c>
       <c r="C639" t="str">
         <v>Yes</v>
@@ -22785,7 +22785,7 @@
         <v>twocolors</v>
       </c>
       <c r="B640" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C640" t="str">
         <v>Yes</v>
@@ -22820,7 +22820,7 @@
         <v>Ufuk Beydemir</v>
       </c>
       <c r="B641" t="str">
-        <v>Türkiye</v>
+        <v>Türkiye 🇹🇷</v>
       </c>
       <c r="C641" t="str">
         <v>Yes</v>
@@ -22855,7 +22855,7 @@
         <v>Vanotek</v>
       </c>
       <c r="B642" t="str">
-        <v>Moldova</v>
+        <v>Moldova 🇲🇩</v>
       </c>
       <c r="C642" t="str">
         <v>Yes</v>
@@ -22890,7 +22890,7 @@
         <v>Vasil</v>
       </c>
       <c r="B643" t="str">
-        <v>North Macedonia</v>
+        <v>North Macedonia 🇲🇰</v>
       </c>
       <c r="C643" t="str">
         <v>Yes</v>
@@ -22925,7 +22925,7 @@
         <v>Vesna</v>
       </c>
       <c r="B644" t="str">
-        <v>Czechia</v>
+        <v>Czechia 🇨🇿</v>
       </c>
       <c r="C644" t="str">
         <v>Yes</v>
@@ -22960,7 +22960,7 @@
         <v>Viki Gabor</v>
       </c>
       <c r="B645" t="str">
-        <v>Poland</v>
+        <v>Poland 🇵🇱</v>
       </c>
       <c r="C645" t="str">
         <v>Yes</v>
@@ -22995,7 +22995,7 @@
         <v>Vladislav Kurasov</v>
       </c>
       <c r="B646" t="str">
-        <v>Belarus</v>
+        <v>Belarus 🇧🇾</v>
       </c>
       <c r="C646" t="str">
         <v>Yes</v>
@@ -23030,7 +23030,7 @@
         <v>Vunk City</v>
       </c>
       <c r="B647" t="str">
-        <v>Romania</v>
+        <v>Romania 🇷🇴</v>
       </c>
       <c r="C647" t="str">
         <v>Yes</v>
@@ -23065,7 +23065,7 @@
         <v>Wankelmut</v>
       </c>
       <c r="B648" t="str">
-        <v>Luxembourg</v>
+        <v>Luxembourg 🇱🇺</v>
       </c>
       <c r="C648" t="str">
         <v>Yes</v>
@@ -23100,7 +23100,7 @@
         <v>We All Poop</v>
       </c>
       <c r="B649" t="str">
-        <v>Czechia</v>
+        <v>Czechia 🇨🇿</v>
       </c>
       <c r="C649" t="str">
         <v>Yes</v>
@@ -23135,7 +23135,7 @@
         <v>Westlife</v>
       </c>
       <c r="B650" t="str">
-        <v>Ireland</v>
+        <v>Ireland 🇮🇪</v>
       </c>
       <c r="C650" t="str">
         <v>Yes</v>
@@ -23170,7 +23170,7 @@
         <v>Who see</v>
       </c>
       <c r="B651" t="str">
-        <v>Montenegro</v>
+        <v>Montenegro 🇲🇪</v>
       </c>
       <c r="C651" t="str">
         <v>Yes</v>
@@ -23205,7 +23205,7 @@
         <v>Wincent Weiss</v>
       </c>
       <c r="B652" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C652" t="str">
         <v>Yes</v>
@@ -23240,7 +23240,7 @@
         <v>Winona Oak</v>
       </c>
       <c r="B653" t="str">
-        <v>Sweden</v>
+        <v>Sweden 🇸🇪</v>
       </c>
       <c r="C653" t="str">
         <v>Yes</v>
@@ -23275,7 +23275,7 @@
         <v>Wulf</v>
       </c>
       <c r="B654" t="str">
-        <v>The Netherlands</v>
+        <v>The Netherlands 🇳🇱</v>
       </c>
       <c r="C654" t="str">
         <v>Yes</v>
@@ -23310,7 +23310,7 @@
         <v>XEINN</v>
       </c>
       <c r="B655" t="str">
-        <v>Andorra</v>
+        <v>Andorra 🇦🇩</v>
       </c>
       <c r="C655" t="str">
         <v>Yes</v>
@@ -23345,7 +23345,7 @@
         <v>YAEL</v>
       </c>
       <c r="B656" t="str">
-        <v>Slovakia</v>
+        <v>Slovakia 🇸🇰</v>
       </c>
       <c r="C656" t="str">
         <v>Yes</v>
@@ -23380,7 +23380,7 @@
         <v>Yam Rafaeli</v>
       </c>
       <c r="B657" t="str">
-        <v>Israel</v>
+        <v>Israel 🇮🇱</v>
       </c>
       <c r="C657" t="str">
         <v>Yes</v>
@@ -23415,7 +23415,7 @@
         <v>Yaseniya</v>
       </c>
       <c r="B658" t="str">
-        <v>Georgia</v>
+        <v>Georgia 🇬🇪</v>
       </c>
       <c r="C658" t="str">
         <v>Yes</v>
@@ -23450,7 +23450,7 @@
         <v>Yasmyn</v>
       </c>
       <c r="B659" t="str">
-        <v>Estonia</v>
+        <v>Estonia 🇪🇪</v>
       </c>
       <c r="C659" t="str">
         <v>Yes</v>
@@ -23485,7 +23485,7 @@
         <v>Yesyes</v>
       </c>
       <c r="B660" t="str">
-        <v>Hungary</v>
+        <v>Hungary 🇭🇺</v>
       </c>
       <c r="C660" t="str">
         <v>Yes</v>
@@ -23520,7 +23520,7 @@
         <v>Yianna Terzis</v>
       </c>
       <c r="B661" t="str">
-        <v>Cyprus</v>
+        <v>Cyprus 🇨🇾</v>
       </c>
       <c r="C661" t="str">
         <v>Yes</v>
@@ -23555,7 +23555,7 @@
         <v>ZAF</v>
       </c>
       <c r="B662" t="str">
-        <v>Greece</v>
+        <v>Greece 🇬🇷</v>
       </c>
       <c r="C662" t="str">
         <v>Yes</v>
@@ -23590,7 +23590,7 @@
         <v>Zamiq Hüseynov</v>
       </c>
       <c r="B663" t="str">
-        <v>Azerbaijan</v>
+        <v>Azerbaijan 🇦🇿</v>
       </c>
       <c r="C663" t="str">
         <v>Yes</v>
@@ -23625,7 +23625,7 @@
         <v>Žan Serčič</v>
       </c>
       <c r="B664" t="str">
-        <v>Slovenia</v>
+        <v>Slovenia 🇸🇮</v>
       </c>
       <c r="C664" t="str">
         <v>Yes</v>
@@ -23660,7 +23660,7 @@
         <v>ZAZ</v>
       </c>
       <c r="B665" t="str">
-        <v>Monaco</v>
+        <v>Monaco 🇲🇨</v>
       </c>
       <c r="C665" t="str">
         <v>Yes</v>
@@ -23695,7 +23695,7 @@
         <v>Zazie</v>
       </c>
       <c r="B666" t="str">
-        <v>France</v>
+        <v>France 🇫🇷</v>
       </c>
       <c r="C666" t="str">
         <v>Yes</v>
@@ -23730,7 +23730,7 @@
         <v>Zhana Bergendorff</v>
       </c>
       <c r="B667" t="str">
-        <v>Bulgaria</v>
+        <v>Bulgaria 🇧🇬</v>
       </c>
       <c r="C667" t="str">
         <v>Yes</v>
@@ -23765,7 +23765,7 @@
         <v>Zoë</v>
       </c>
       <c r="B668" t="str">
-        <v>Austria</v>
+        <v>Austria 🇦🇹</v>
       </c>
       <c r="C668" t="str">
         <v>Yes</v>
@@ -23800,7 +23800,7 @@
         <v>Zoe Wees</v>
       </c>
       <c r="B669" t="str">
-        <v>Germany</v>
+        <v>Germany 🇩🇪</v>
       </c>
       <c r="C669" t="str">
         <v>Yes</v>
